--- a/example/Chapter12_Example.xlsx
+++ b/example/Chapter12_Example.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHK\Google 드라이브\KHU\Lecture\IE208 응용통계학\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doubleseat/applied_statistics/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14AD5C3-FAC2-9449-BCD3-82DD0642DF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7130" activeTab="1"/>
+    <workbookView xWindow="3340" yWindow="500" windowWidth="29840" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="height_weight" sheetId="2" r:id="rId1"/>
@@ -19,7 +20,18 @@
     <sheet name="Production_Electricity_blank" sheetId="3" r:id="rId5"/>
     <sheet name="Production_Electricity_blank2" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -258,9 +270,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>(x_i - xbar)(y_i - ybar)</t>
   </si>
   <si>
@@ -329,11 +338,15 @@
     <t>r^2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>r(correlation coefficient)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.000"/>
@@ -341,7 +354,7 @@
     <numFmt numFmtId="179" formatCode="0.000_ "/>
     <numFmt numFmtId="180" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,7 +930,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -935,7 +948,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2270,7 +2283,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2509,7 +2522,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2538,13 +2557,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>326083</xdr:colOff>
+      <xdr:colOff>245703</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>182367</xdr:rowOff>
+      <xdr:rowOff>182366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3"/>
+        <xdr:cNvPr id="2" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2606,13 +2631,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>227998</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>80522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2673,14 +2704,20 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581708</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>125425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2753,7 +2790,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3"/>
+        <xdr:cNvPr id="2" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2821,7 +2864,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2853,7 +2902,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2921,7 +2976,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 2"/>
+        <xdr:cNvPr id="5" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2989,7 +3050,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 2"/>
+        <xdr:cNvPr id="6" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3027,7 +3094,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 2"/>
+        <xdr:cNvPr id="7" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3095,7 +3168,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 2"/>
+        <xdr:cNvPr id="8" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3168,7 +3247,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3"/>
+        <xdr:cNvPr id="2" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3241,7 +3326,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3"/>
+        <xdr:cNvPr id="2" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3309,7 +3400,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 2"/>
+        <xdr:cNvPr id="5" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3377,7 +3474,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 2"/>
+        <xdr:cNvPr id="6" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3445,7 +3548,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3488,7 +3597,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3"/>
+        <xdr:cNvPr id="2" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3545,7 +3660,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3620,6 +3735,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3655,6 +3787,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3830,16 +3979,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="31.5" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3850,7 +3999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3861,7 +4010,7 @@
         <v>51.297460000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3872,7 +4021,7 @@
         <v>61.966460000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -3883,7 +4032,7 @@
         <v>69.475620000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3894,7 +4043,7 @@
         <v>64.62236</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -3905,7 +4054,7 @@
         <v>65.512200000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3916,7 +4065,7 @@
         <v>55.978200000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3927,7 +4076,7 @@
         <v>64.236460000000008</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3938,7 +4087,7 @@
         <v>61.952840000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3949,7 +4098,7 @@
         <v>51.015980000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3960,7 +4109,7 @@
         <v>54.784179999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -3971,7 +4120,7 @@
         <v>57.862300000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -3982,7 +4131,7 @@
         <v>51.819560000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -3993,7 +4142,7 @@
         <v>57.026940000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -4004,7 +4153,7 @@
         <v>55.59684</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -4015,7 +4164,7 @@
         <v>52.704860000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -4026,7 +4175,7 @@
         <v>63.56</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -4037,7 +4186,7 @@
         <v>58.792999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -4048,7 +4197,7 @@
         <v>64.908380000000008</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -4059,7 +4208,7 @@
         <v>62.606600000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -4070,7 +4219,7 @@
         <v>56.314160000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -4081,7 +4230,7 @@
         <v>64.141120000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -4092,7 +4241,7 @@
         <v>65.167159999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -4103,7 +4252,7 @@
         <v>44.446600000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -4114,7 +4263,7 @@
         <v>58.792999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -4125,7 +4274,7 @@
         <v>64.399900000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -4136,7 +4285,7 @@
         <v>58.892879999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -4147,7 +4296,7 @@
         <v>64.65867999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -4158,7 +4307,7 @@
         <v>59.723700000000008</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -4169,7 +4318,7 @@
         <v>49.181820000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -4180,7 +4329,7 @@
         <v>51.706060000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -4191,7 +4340,7 @@
         <v>46.898200000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -4202,7 +4351,7 @@
         <v>54.820500000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -4213,7 +4362,7 @@
         <v>57.108660000000008</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -4224,7 +4373,7 @@
         <v>61.843879999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -4235,7 +4384,7 @@
         <v>63.605399999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -4246,7 +4395,7 @@
         <v>58.452500000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -4257,7 +4406,7 @@
         <v>64.377200000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -4268,7 +4417,7 @@
         <v>55.038420000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -4279,7 +4428,7 @@
         <v>59.632899999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -4290,7 +4439,7 @@
         <v>48.446339999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -4301,7 +4450,7 @@
         <v>56.459440000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -4312,7 +4461,7 @@
         <v>56.686440000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -4323,7 +4472,7 @@
         <v>63.410179999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -4334,7 +4483,7 @@
         <v>62.365980000000008</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -4345,7 +4494,7 @@
         <v>48.328300000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -4356,7 +4505,7 @@
         <v>58.457039999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -4367,7 +4516,7 @@
         <v>66.138720000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -4378,7 +4527,7 @@
         <v>53.036279999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -4389,7 +4538,7 @@
         <v>65.203479999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -4400,7 +4549,7 @@
         <v>61.258220000000009</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -4411,7 +4560,7 @@
         <v>66.747080000000011</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -4422,7 +4571,7 @@
         <v>57.353819999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -4433,7 +4582,7 @@
         <v>56.967920000000007</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -4444,7 +4593,7 @@
         <v>52.532339999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -4455,7 +4604,7 @@
         <v>56.064459999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -4466,7 +4615,7 @@
         <v>67.142060000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -4477,7 +4626,7 @@
         <v>70.778600000000012</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -4488,7 +4637,7 @@
         <v>58.14378</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -4499,7 +4648,7 @@
         <v>54.193980000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -4510,7 +4659,7 @@
         <v>60.749740000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -4521,7 +4670,7 @@
         <v>58.443419999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -4532,7 +4681,7 @@
         <v>62.447700000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -4543,7 +4692,7 @@
         <v>58.91104</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -4554,7 +4703,7 @@
         <v>58.484279999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -4565,7 +4714,7 @@
         <v>61.435279999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -4576,7 +4725,7 @@
         <v>49.76294</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -4587,7 +4736,7 @@
         <v>64.681380000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -4598,7 +4747,7 @@
         <v>60.268500000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -4609,7 +4758,7 @@
         <v>47.00262</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -4620,7 +4769,7 @@
         <v>56.627420000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -4631,7 +4780,7 @@
         <v>58.706740000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -4642,7 +4791,7 @@
         <v>60.84508000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -4653,7 +4802,7 @@
         <v>63.741600000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3">
       <c r="A75" s="11">
         <v>74</v>
       </c>
@@ -4664,7 +4813,7 @@
         <v>46.689360000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3">
       <c r="A76" s="11">
         <v>75</v>
       </c>
@@ -4675,7 +4824,7 @@
         <v>58.348080000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3">
       <c r="A77" s="11">
         <v>76</v>
       </c>
@@ -4686,7 +4835,7 @@
         <v>54.616199999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3">
       <c r="A78" s="11">
         <v>77</v>
       </c>
@@ -4697,7 +4846,7 @@
         <v>62.924399999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3">
       <c r="A79" s="11">
         <v>78</v>
       </c>
@@ -4708,7 +4857,7 @@
         <v>60.363840000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3">
       <c r="A80" s="11">
         <v>79</v>
       </c>
@@ -4719,7 +4868,7 @@
         <v>52.491480000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3">
       <c r="A81" s="11">
         <v>80</v>
       </c>
@@ -4730,7 +4879,7 @@
         <v>55.624079999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3">
       <c r="A82" s="11">
         <v>81</v>
       </c>
@@ -4741,7 +4890,7 @@
         <v>61.122019999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3">
       <c r="A83" s="11">
         <v>82</v>
       </c>
@@ -4752,7 +4901,7 @@
         <v>55.342600000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3">
       <c r="A84" s="11">
         <v>83</v>
       </c>
@@ -4763,7 +4912,7 @@
         <v>70.542519999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3">
       <c r="A85" s="11">
         <v>84</v>
       </c>
@@ -4774,7 +4923,7 @@
         <v>58.538760000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3">
       <c r="A86" s="11">
         <v>85</v>
       </c>
@@ -4785,7 +4934,7 @@
         <v>58.611399999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3">
       <c r="A87" s="11">
         <v>86</v>
       </c>
@@ -4796,7 +4945,7 @@
         <v>63.319380000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3">
       <c r="A88" s="11">
         <v>87</v>
       </c>
@@ -4807,7 +4956,7 @@
         <v>63.964059999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3">
       <c r="A89" s="11">
         <v>88</v>
       </c>
@@ -4818,7 +4967,7 @@
         <v>59.741860000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3">
       <c r="A90" s="11">
         <v>89</v>
       </c>
@@ -4829,7 +4978,7 @@
         <v>54.988480000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3">
       <c r="A91" s="11">
         <v>90</v>
       </c>
@@ -4840,7 +4989,7 @@
         <v>59.705539999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3">
       <c r="A92" s="11">
         <v>91</v>
       </c>
@@ -4851,7 +5000,7 @@
         <v>61.993700000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3">
       <c r="A93" s="11">
         <v>92</v>
       </c>
@@ -4862,7 +5011,7 @@
         <v>64.236460000000008</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3">
       <c r="A94" s="11">
         <v>93</v>
       </c>
@@ -4873,7 +5022,7 @@
         <v>63.836940000000006</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3">
       <c r="A95" s="11">
         <v>94</v>
       </c>
@@ -4884,7 +5033,7 @@
         <v>50.911560000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3">
       <c r="A96" s="11">
         <v>95</v>
       </c>
@@ -4895,7 +5044,7 @@
         <v>60.590840000000007</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3">
       <c r="A97" s="11">
         <v>96</v>
       </c>
@@ -4906,7 +5055,7 @@
         <v>59.83720000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3">
       <c r="A98" s="11">
         <v>97</v>
       </c>
@@ -4917,7 +5066,7 @@
         <v>54.49362</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3">
       <c r="A99" s="11">
         <v>98</v>
       </c>
@@ -4928,7 +5077,7 @@
         <v>55.8874</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3">
       <c r="A100" s="11">
         <v>99</v>
       </c>
@@ -4939,7 +5088,7 @@
         <v>58.175559999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3">
       <c r="A101" s="11">
         <v>100</v>
       </c>
@@ -4950,7 +5099,7 @@
         <v>52.42792</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3">
       <c r="A102" s="11">
         <v>101</v>
       </c>
@@ -4961,7 +5110,7 @@
         <v>46.348860000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3">
       <c r="A103" s="11">
         <v>102</v>
       </c>
@@ -4972,7 +5121,7 @@
         <v>59.178899999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3">
       <c r="A104" s="11">
         <v>103</v>
       </c>
@@ -4983,7 +5132,7 @@
         <v>60.917720000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3">
       <c r="A105" s="11">
         <v>104</v>
       </c>
@@ -4994,7 +5143,7 @@
         <v>44.782560000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3">
       <c r="A106" s="11">
         <v>105</v>
       </c>
@@ -5005,7 +5154,7 @@
         <v>52.010240000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3">
       <c r="A107" s="11">
         <v>106</v>
       </c>
@@ -5016,7 +5165,7 @@
         <v>56.064459999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3">
       <c r="A108" s="11">
         <v>107</v>
       </c>
@@ -5027,7 +5176,7 @@
         <v>55.864699999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3">
       <c r="A109" s="11">
         <v>108</v>
       </c>
@@ -5038,7 +5187,7 @@
         <v>57.421920000000007</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3">
       <c r="A110" s="11">
         <v>109</v>
       </c>
@@ -5049,7 +5198,7 @@
         <v>58.302679999999995</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3">
       <c r="A111" s="11">
         <v>110</v>
       </c>
@@ -5060,7 +5209,7 @@
         <v>57.744260000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3">
       <c r="A112" s="11">
         <v>111</v>
       </c>
@@ -5071,7 +5220,7 @@
         <v>55.415240000000004</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3">
       <c r="A113" s="11">
         <v>112</v>
       </c>
@@ -5082,7 +5231,7 @@
         <v>57.934940000000005</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3">
       <c r="A114" s="11">
         <v>113</v>
       </c>
@@ -5093,7 +5242,7 @@
         <v>59.764559999999996</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3">
       <c r="A115" s="11">
         <v>114</v>
       </c>
@@ -5104,7 +5253,7 @@
         <v>50.802600000000005</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3">
       <c r="A116" s="11">
         <v>115</v>
       </c>
@@ -5115,7 +5264,7 @@
         <v>55.406160000000007</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3">
       <c r="A117" s="11">
         <v>116</v>
       </c>
@@ -5126,7 +5275,7 @@
         <v>58.361700000000006</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3">
       <c r="A118" s="11">
         <v>117</v>
       </c>
@@ -5137,7 +5286,7 @@
         <v>60.236720000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3">
       <c r="A119" s="11">
         <v>118</v>
       </c>
@@ -5148,7 +5297,7 @@
         <v>61.771240000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3">
       <c r="A120" s="11">
         <v>119</v>
       </c>
@@ -5159,7 +5308,7 @@
         <v>52.636760000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3">
       <c r="A121" s="11">
         <v>120</v>
       </c>
@@ -5170,7 +5319,7 @@
         <v>62.152600000000007</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3">
       <c r="A122" s="11">
         <v>121</v>
       </c>
@@ -5181,7 +5330,7 @@
         <v>54.425519999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3">
       <c r="A123" s="11">
         <v>122</v>
       </c>
@@ -5192,7 +5341,7 @@
         <v>49.490540000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3">
       <c r="A124" s="11">
         <v>123</v>
       </c>
@@ -5203,7 +5352,7 @@
         <v>58.234580000000008</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3">
       <c r="A125" s="11">
         <v>124</v>
       </c>
@@ -5214,7 +5363,7 @@
         <v>61.421659999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3">
       <c r="A126" s="11">
         <v>125</v>
       </c>
@@ -5225,7 +5374,7 @@
         <v>48.51444</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3">
       <c r="A127" s="11">
         <v>126</v>
       </c>
@@ -5236,7 +5385,7 @@
         <v>55.973660000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3">
       <c r="A128" s="11">
         <v>127</v>
       </c>
@@ -5247,7 +5396,7 @@
         <v>49.717540000000007</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3">
       <c r="A129" s="11">
         <v>128</v>
       </c>
@@ -5258,7 +5407,7 @@
         <v>54.166740000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3">
       <c r="A130" s="11">
         <v>129</v>
       </c>
@@ -5269,7 +5418,7 @@
         <v>63.668960000000006</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3">
       <c r="A131" s="11">
         <v>130</v>
       </c>
@@ -5280,7 +5429,7 @@
         <v>60.826919999999994</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3">
       <c r="A132" s="11">
         <v>131</v>
       </c>
@@ -5291,7 +5440,7 @@
         <v>60.191320000000005</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3">
       <c r="A133" s="11">
         <v>132</v>
       </c>
@@ -5302,7 +5451,7 @@
         <v>59.337799999999994</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3">
       <c r="A134" s="11">
         <v>133</v>
       </c>
@@ -5313,7 +5462,7 @@
         <v>52.464240000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3">
       <c r="A135" s="11">
         <v>134</v>
       </c>
@@ -5324,7 +5473,7 @@
         <v>56.200660000000006</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3">
       <c r="A136" s="11">
         <v>135</v>
       </c>
@@ -5335,7 +5484,7 @@
         <v>58.175559999999997</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3">
       <c r="A137" s="11">
         <v>136</v>
       </c>
@@ -5346,7 +5495,7 @@
         <v>61.725840000000005</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3">
       <c r="A138" s="11">
         <v>137</v>
       </c>
@@ -5357,7 +5506,7 @@
         <v>52.950020000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3">
       <c r="A139" s="11">
         <v>138</v>
       </c>
@@ -5368,7 +5517,7 @@
         <v>57.576279999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3">
       <c r="A140" s="11">
         <v>139</v>
       </c>
@@ -5379,7 +5528,7 @@
         <v>68.731059999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3">
       <c r="A141" s="11">
         <v>140</v>
       </c>
@@ -5390,7 +5539,7 @@
         <v>59.201600000000006</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3">
       <c r="A142" s="11">
         <v>141</v>
       </c>
@@ -5401,7 +5550,7 @@
         <v>61.839340000000007</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3">
       <c r="A143" s="11">
         <v>142</v>
       </c>
@@ -5412,7 +5561,7 @@
         <v>51.483600000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3">
       <c r="A144" s="11">
         <v>143</v>
       </c>
@@ -5423,7 +5572,7 @@
         <v>56.899819999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3">
       <c r="A145" s="11">
         <v>144</v>
       </c>
@@ -5434,7 +5583,7 @@
         <v>57.921320000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3">
       <c r="A146" s="11">
         <v>145</v>
       </c>
@@ -5445,7 +5594,7 @@
         <v>48.650640000000003</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3">
       <c r="A147" s="11">
         <v>146</v>
       </c>
@@ -5456,7 +5605,7 @@
         <v>52.872839999999997</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3">
       <c r="A148" s="11">
         <v>147</v>
       </c>
@@ -5467,7 +5616,7 @@
         <v>60.763360000000006</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3">
       <c r="A149" s="11">
         <v>148</v>
       </c>
@@ -5478,7 +5627,7 @@
         <v>51.25206</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3">
       <c r="A150" s="11">
         <v>149</v>
       </c>
@@ -5489,7 +5638,7 @@
         <v>59.36504</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3">
       <c r="A151" s="11">
         <v>150</v>
       </c>
@@ -5500,7 +5649,7 @@
         <v>62.543039999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3">
       <c r="A152" s="11">
         <v>151</v>
       </c>
@@ -5511,7 +5660,7 @@
         <v>56.931600000000003</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3">
       <c r="A153" s="11">
         <v>152</v>
       </c>
@@ -5522,7 +5671,7 @@
         <v>62.865380000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3">
       <c r="A154" s="11">
         <v>153</v>
       </c>
@@ -5533,7 +5682,7 @@
         <v>54.85228</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3">
       <c r="A155" s="11">
         <v>154</v>
       </c>
@@ -5544,7 +5693,7 @@
         <v>63.628100000000003</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3">
       <c r="A156" s="11">
         <v>155</v>
       </c>
@@ -5555,7 +5704,7 @@
         <v>62.079960000000007</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3">
       <c r="A157" s="11">
         <v>156</v>
       </c>
@@ -5566,7 +5715,7 @@
         <v>48.173940000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3">
       <c r="A158" s="11">
         <v>157</v>
       </c>
@@ -5577,7 +5726,7 @@
         <v>72.167840000000012</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3">
       <c r="A159" s="11">
         <v>158</v>
       </c>
@@ -5588,7 +5737,7 @@
         <v>49.390660000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3">
       <c r="A160" s="11">
         <v>159</v>
       </c>
@@ -5599,7 +5748,7 @@
         <v>63.006120000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3">
       <c r="A161" s="11">
         <v>160</v>
       </c>
@@ -5610,7 +5759,7 @@
         <v>52.623139999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3">
       <c r="A162" s="11">
         <v>161</v>
       </c>
@@ -5621,7 +5770,7 @@
         <v>66.415660000000003</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3">
       <c r="A163" s="11">
         <v>162</v>
       </c>
@@ -5632,7 +5781,7 @@
         <v>49.88552</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3">
       <c r="A164" s="11">
         <v>163</v>
       </c>
@@ -5643,7 +5792,7 @@
         <v>63.128700000000009</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3">
       <c r="A165" s="11">
         <v>164</v>
       </c>
@@ -5654,7 +5803,7 @@
         <v>54.434600000000003</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:3">
       <c r="A166" s="11">
         <v>165</v>
       </c>
@@ -5665,7 +5814,7 @@
         <v>58.252740000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:3">
       <c r="A167" s="11">
         <v>166</v>
       </c>
@@ -5676,7 +5825,7 @@
         <v>57.766959999999997</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:3">
       <c r="A168" s="11">
         <v>167</v>
       </c>
@@ -5687,7 +5836,7 @@
         <v>52.314420000000005</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:3">
       <c r="A169" s="11">
         <v>168</v>
       </c>
@@ -5698,7 +5847,7 @@
         <v>56.659199999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:3">
       <c r="A170" s="11">
         <v>169</v>
       </c>
@@ -5709,7 +5858,7 @@
         <v>57.635300000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:3">
       <c r="A171" s="11">
         <v>170</v>
       </c>
@@ -5720,7 +5869,7 @@
         <v>50.516579999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:3">
       <c r="A172" s="11">
         <v>171</v>
       </c>
@@ -5731,7 +5880,7 @@
         <v>55.664940000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:3">
       <c r="A173" s="11">
         <v>172</v>
       </c>
@@ -5742,7 +5891,7 @@
         <v>56.39134</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:3">
       <c r="A174" s="11">
         <v>173</v>
       </c>
@@ -5753,7 +5902,7 @@
         <v>56.591100000000004</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:3">
       <c r="A175" s="11">
         <v>174</v>
       </c>
@@ -5764,7 +5913,7 @@
         <v>54.262079999999997</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:3">
       <c r="A176" s="11">
         <v>175</v>
       </c>
@@ -5775,7 +5924,7 @@
         <v>63.242200000000004</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:3">
       <c r="A177" s="11">
         <v>176</v>
       </c>
@@ -5786,7 +5935,7 @@
         <v>47.592820000000003</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:3">
       <c r="A178" s="11">
         <v>177</v>
       </c>
@@ -5797,7 +5946,7 @@
         <v>55.860160000000008</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:3">
       <c r="A179" s="11">
         <v>178</v>
       </c>
@@ -5808,7 +5957,7 @@
         <v>53.976060000000004</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:3">
       <c r="A180" s="11">
         <v>179</v>
       </c>
@@ -5819,7 +5968,7 @@
         <v>55.156460000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:3">
       <c r="A181" s="11">
         <v>180</v>
       </c>
@@ -5830,7 +5979,7 @@
         <v>54.139500000000005</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:3">
       <c r="A182" s="11">
         <v>181</v>
       </c>
@@ -5841,7 +5990,7 @@
         <v>61.299080000000004</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:3">
       <c r="A183" s="11">
         <v>182</v>
       </c>
@@ -5852,7 +6001,7 @@
         <v>52.768420000000006</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:3">
       <c r="A184" s="11">
         <v>183</v>
       </c>
@@ -5863,7 +6012,7 @@
         <v>49.563180000000003</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:3">
       <c r="A185" s="11">
         <v>184</v>
       </c>
@@ -5874,7 +6023,7 @@
         <v>56.395879999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:3">
       <c r="A186" s="11">
         <v>185</v>
       </c>
@@ -5885,7 +6034,7 @@
         <v>64.086640000000003</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:3">
       <c r="A187" s="11">
         <v>186</v>
       </c>
@@ -5896,7 +6045,7 @@
         <v>58.634100000000004</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:3">
       <c r="A188" s="11">
         <v>187</v>
       </c>
@@ -5907,7 +6056,7 @@
         <v>58.052980000000005</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:3">
       <c r="A189" s="11">
         <v>188</v>
       </c>
@@ -5918,7 +6067,7 @@
         <v>54.897680000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:3">
       <c r="A190" s="11">
         <v>189</v>
       </c>
@@ -5929,7 +6078,7 @@
         <v>57.953100000000006</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:3">
       <c r="A191" s="11">
         <v>190</v>
       </c>
@@ -5940,7 +6089,7 @@
         <v>46.06738</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:3">
       <c r="A192" s="11">
         <v>191</v>
       </c>
@@ -5951,7 +6100,7 @@
         <v>65.825460000000007</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:3">
       <c r="A193" s="11">
         <v>192</v>
       </c>
@@ -5962,7 +6111,7 @@
         <v>50.371300000000005</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:3">
       <c r="A194" s="11">
         <v>193</v>
       </c>
@@ -5973,7 +6122,7 @@
         <v>60.31844000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:3">
       <c r="A195" s="11">
         <v>194</v>
       </c>
@@ -5984,7 +6133,7 @@
         <v>66.438360000000003</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:3">
       <c r="A196" s="11">
         <v>195</v>
       </c>
@@ -5995,7 +6144,7 @@
         <v>66.097859999999997</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:3">
       <c r="A197" s="11">
         <v>196</v>
       </c>
@@ -6006,7 +6155,7 @@
         <v>54.861360000000005</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:3">
       <c r="A198" s="11">
         <v>197</v>
       </c>
@@ -6017,7 +6166,7 @@
         <v>52.564120000000003</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:3">
       <c r="A199" s="11">
         <v>198</v>
       </c>
@@ -6028,7 +6177,7 @@
         <v>58.248200000000004</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:3">
       <c r="A200" s="11">
         <v>199</v>
       </c>
@@ -6039,7 +6188,7 @@
         <v>57.871380000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:3">
       <c r="A201" s="11">
         <v>200</v>
       </c>
@@ -6058,22 +6207,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L91" sqref="L91"/>
+    <sheetView zoomScale="135" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17">
       <c r="A1" s="38"/>
       <c r="B1" s="39" t="s">
         <v>61</v>
@@ -6106,16 +6261,16 @@
         <v>50</v>
       </c>
       <c r="O1" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="Q1" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -6146,7 +6301,7 @@
         <v>50820</v>
       </c>
       <c r="K2" s="43">
-        <f t="shared" ref="K2:K33" si="0">$I$91+$I$90*E2</f>
+        <f>$I$91+$I$90*E2</f>
         <v>883.04025176259029</v>
       </c>
       <c r="L2" s="43">
@@ -6170,7 +6325,7 @@
         <v>114.54095804988685</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -6181,27 +6336,27 @@
         <v>887</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">B3</f>
+        <f t="shared" ref="E3:E66" si="0">B3</f>
         <v>53</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="2">C3</f>
+        <f t="shared" ref="F3:F66" si="1">C3</f>
         <v>887</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="3">E3^2</f>
+        <f t="shared" ref="G3:G66" si="2">E3^2</f>
         <v>2809</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="4">F3^2</f>
+        <f t="shared" ref="H3:H66" si="3">F3^2</f>
         <v>786769</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="5">E3*F3</f>
+        <f t="shared" ref="I3:I66" si="4">E3*F3</f>
         <v>47011</v>
       </c>
       <c r="K3" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K3:K66" si="5">$I$91+$I$90*E3</f>
         <v>905.82108973874176</v>
       </c>
       <c r="L3" s="43">
@@ -6225,7 +6380,7 @@
         <v>858.3504818594098</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -6236,27 +6391,27 @@
         <v>879</v>
       </c>
       <c r="E4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="F4">
+        <v>879</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="2"/>
-        <v>879</v>
-      </c>
-      <c r="G4">
+        <v>3600</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="3"/>
-        <v>3600</v>
-      </c>
-      <c r="H4">
+        <v>772641</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="4"/>
-        <v>772641</v>
-      </c>
-      <c r="I4">
+        <v>52740</v>
+      </c>
+      <c r="K4" s="43">
         <f t="shared" si="5"/>
-        <v>52740</v>
-      </c>
-      <c r="K4" s="43">
-        <f t="shared" si="0"/>
         <v>883.04025176259029</v>
       </c>
       <c r="L4" s="43">
@@ -6280,7 +6435,7 @@
         <v>453.58857709750521</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -6291,27 +6446,27 @@
         <v>919</v>
       </c>
       <c r="E5">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="F5">
+        <v>919</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="2"/>
-        <v>919</v>
-      </c>
-      <c r="G5">
+        <v>3025</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="3"/>
-        <v>3025</v>
-      </c>
-      <c r="H5">
+        <v>844561</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="4"/>
-        <v>844561</v>
-      </c>
-      <c r="I5">
+        <v>50545</v>
+      </c>
+      <c r="K5" s="43">
         <f t="shared" si="5"/>
-        <v>50545</v>
-      </c>
-      <c r="K5" s="43">
-        <f t="shared" si="0"/>
         <v>899.31227888841272</v>
       </c>
       <c r="L5" s="43">
@@ -6335,7 +6490,7 @@
         <v>3757.398100907028</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" hidden="1">
       <c r="A6" s="41">
         <v>5</v>
       </c>
@@ -6346,27 +6501,27 @@
         <v>816</v>
       </c>
       <c r="E6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="F6">
+        <v>816</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="2"/>
-        <v>816</v>
-      </c>
-      <c r="G6">
+        <v>3600</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="3"/>
-        <v>3600</v>
-      </c>
-      <c r="H6">
+        <v>665856</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="4"/>
-        <v>665856</v>
-      </c>
-      <c r="I6">
+        <v>48960</v>
+      </c>
+      <c r="K6" s="43">
         <f t="shared" si="5"/>
-        <v>48960</v>
-      </c>
-      <c r="K6" s="43">
-        <f t="shared" si="0"/>
         <v>883.04025176259029</v>
       </c>
       <c r="L6" s="43">
@@ -6390,7 +6545,7 @@
         <v>1739.0885770975065</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" hidden="1">
       <c r="A7" s="41">
         <v>6</v>
       </c>
@@ -6401,27 +6556,27 @@
         <v>814</v>
       </c>
       <c r="E7">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="F7">
+        <v>814</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="2"/>
-        <v>814</v>
-      </c>
-      <c r="G7">
+        <v>6084</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="3"/>
-        <v>6084</v>
-      </c>
-      <c r="H7">
+        <v>662596</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="4"/>
-        <v>662596</v>
-      </c>
-      <c r="I7">
+        <v>63492</v>
+      </c>
+      <c r="K7" s="43">
         <f t="shared" si="5"/>
-        <v>63492</v>
-      </c>
-      <c r="K7" s="43">
-        <f t="shared" si="0"/>
         <v>824.46095410962937</v>
       </c>
       <c r="L7" s="43">
@@ -6445,7 +6600,7 @@
         <v>1909.8981009070303</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" hidden="1">
       <c r="A8" s="41">
         <v>7</v>
       </c>
@@ -6456,27 +6611,27 @@
         <v>814</v>
       </c>
       <c r="E8">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="F8">
+        <v>814</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="2"/>
-        <v>814</v>
-      </c>
-      <c r="G8">
+        <v>5476</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="3"/>
-        <v>5476</v>
-      </c>
-      <c r="H8">
+        <v>662596</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="4"/>
-        <v>662596</v>
-      </c>
-      <c r="I8">
+        <v>60236</v>
+      </c>
+      <c r="K8" s="43">
         <f t="shared" si="5"/>
-        <v>60236</v>
-      </c>
-      <c r="K8" s="43">
-        <f t="shared" si="0"/>
         <v>837.47857581028734</v>
       </c>
       <c r="L8" s="43">
@@ -6500,7 +6655,7 @@
         <v>1909.8981009070303</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" hidden="1">
       <c r="A9" s="41">
         <v>8</v>
       </c>
@@ -6511,27 +6666,27 @@
         <v>855</v>
       </c>
       <c r="E9">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="F9">
+        <v>855</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="2"/>
-        <v>855</v>
-      </c>
-      <c r="G9">
+        <v>4900</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="3"/>
-        <v>4900</v>
-      </c>
-      <c r="H9">
+        <v>731025</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="4"/>
-        <v>731025</v>
-      </c>
-      <c r="I9">
+        <v>59850</v>
+      </c>
+      <c r="K9" s="43">
         <f t="shared" si="5"/>
-        <v>59850</v>
-      </c>
-      <c r="K9" s="43">
-        <f t="shared" si="0"/>
         <v>850.49619751094531</v>
       </c>
       <c r="L9" s="43">
@@ -6555,7 +6710,7 @@
         <v>7.3028628117914414</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" hidden="1">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -6566,27 +6721,27 @@
         <v>980</v>
       </c>
       <c r="E10">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="F10">
+        <v>980</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="2"/>
-        <v>980</v>
-      </c>
-      <c r="G10">
+        <v>2116</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="3"/>
-        <v>2116</v>
-      </c>
-      <c r="H10">
+        <v>960400</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="4"/>
-        <v>960400</v>
-      </c>
-      <c r="I10">
+        <v>45080</v>
+      </c>
+      <c r="K10" s="43">
         <f t="shared" si="5"/>
-        <v>45080</v>
-      </c>
-      <c r="K10" s="43">
-        <f t="shared" si="0"/>
         <v>928.60192771489324</v>
       </c>
       <c r="L10" s="43">
@@ -6610,7 +6765,7 @@
         <v>14956.707624716551</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" hidden="1">
       <c r="A11" s="41">
         <v>10</v>
       </c>
@@ -6621,27 +6776,27 @@
         <v>954</v>
       </c>
       <c r="E11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="F11">
+        <v>954</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="2"/>
-        <v>954</v>
-      </c>
-      <c r="G11">
+        <v>2500</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="3"/>
-        <v>2500</v>
-      </c>
-      <c r="H11">
+        <v>910116</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="4"/>
-        <v>910116</v>
-      </c>
-      <c r="I11">
+        <v>47700</v>
+      </c>
+      <c r="K11" s="43">
         <f t="shared" si="5"/>
-        <v>47700</v>
-      </c>
-      <c r="K11" s="43">
-        <f t="shared" si="0"/>
         <v>915.58430601423515</v>
       </c>
       <c r="L11" s="43">
@@ -6665,7 +6820,7 @@
         <v>9273.2314342403606</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" hidden="1">
       <c r="A12" s="41">
         <v>11</v>
       </c>
@@ -6676,27 +6831,27 @@
         <v>1078</v>
       </c>
       <c r="E12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="F12">
+        <v>1078</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="2"/>
-        <v>1078</v>
-      </c>
-      <c r="G12">
+        <v>2500</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="3"/>
-        <v>2500</v>
-      </c>
-      <c r="H12">
+        <v>1162084</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="4"/>
-        <v>1162084</v>
-      </c>
-      <c r="I12">
+        <v>53900</v>
+      </c>
+      <c r="K12" s="43">
         <f t="shared" si="5"/>
-        <v>53900</v>
-      </c>
-      <c r="K12" s="43">
-        <f t="shared" si="0"/>
         <v>915.58430601423515</v>
       </c>
       <c r="L12" s="43">
@@ -6720,7 +6875,7 @@
         <v>48531.040958049882</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" hidden="1">
       <c r="A13" s="41">
         <v>12</v>
       </c>
@@ -6731,27 +6886,27 @@
         <v>1001</v>
       </c>
       <c r="E13">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="F13">
+        <v>1001</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="2"/>
-        <v>1001</v>
-      </c>
-      <c r="G13">
+        <v>3481</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="3"/>
-        <v>3481</v>
-      </c>
-      <c r="H13">
+        <v>1002001</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="4"/>
-        <v>1002001</v>
-      </c>
-      <c r="I13">
+        <v>59059</v>
+      </c>
+      <c r="K13" s="43">
         <f t="shared" si="5"/>
-        <v>59059</v>
-      </c>
-      <c r="K13" s="43">
-        <f t="shared" si="0"/>
         <v>886.29465718775475</v>
       </c>
       <c r="L13" s="43">
@@ -6775,7 +6930,7 @@
         <v>20534.20762471655</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" hidden="1">
       <c r="A14" s="41">
         <v>13</v>
       </c>
@@ -6786,27 +6941,27 @@
         <v>766</v>
       </c>
       <c r="E14">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="F14">
+        <v>766</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="2"/>
-        <v>766</v>
-      </c>
-      <c r="G14">
+        <v>3844</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="3"/>
-        <v>3844</v>
-      </c>
-      <c r="H14">
+        <v>586756</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="4"/>
-        <v>586756</v>
-      </c>
-      <c r="I14">
+        <v>47492</v>
+      </c>
+      <c r="K14" s="43">
         <f t="shared" si="5"/>
-        <v>47492</v>
-      </c>
-      <c r="K14" s="43">
-        <f t="shared" si="0"/>
         <v>876.53144091226125</v>
       </c>
       <c r="L14" s="43">
@@ -6830,7 +6985,7 @@
         <v>8409.3266723356028</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" hidden="1">
       <c r="A15" s="41">
         <v>14</v>
       </c>
@@ -6841,27 +6996,27 @@
         <v>916</v>
       </c>
       <c r="E15">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="F15">
+        <v>916</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="2"/>
-        <v>916</v>
-      </c>
-      <c r="G15">
+        <v>4096</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="3"/>
-        <v>4096</v>
-      </c>
-      <c r="H15">
+        <v>839056</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="4"/>
-        <v>839056</v>
-      </c>
-      <c r="I15">
+        <v>58624</v>
+      </c>
+      <c r="K15" s="43">
         <f t="shared" si="5"/>
-        <v>58624</v>
-      </c>
-      <c r="K15" s="43">
-        <f t="shared" si="0"/>
         <v>870.02263006193232</v>
       </c>
       <c r="L15" s="43">
@@ -6885,7 +7040,7 @@
         <v>3398.6123866213138</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" hidden="1">
       <c r="A16" s="41">
         <v>15</v>
       </c>
@@ -6896,27 +7051,27 @@
         <v>798</v>
       </c>
       <c r="E16">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="F16">
+        <v>798</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="2"/>
-        <v>798</v>
-      </c>
-      <c r="G16">
+        <v>2601</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="3"/>
-        <v>2601</v>
-      </c>
-      <c r="H16">
+        <v>636804</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="4"/>
-        <v>636804</v>
-      </c>
-      <c r="I16">
+        <v>40698</v>
+      </c>
+      <c r="K16" s="43">
         <f t="shared" si="5"/>
-        <v>40698</v>
-      </c>
-      <c r="K16" s="43">
-        <f t="shared" si="0"/>
         <v>912.32990058907069</v>
       </c>
       <c r="L16" s="43">
@@ -6940,7 +7095,7 @@
         <v>3564.3742913832211</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" hidden="1">
       <c r="A17" s="41">
         <v>16</v>
       </c>
@@ -6951,27 +7106,27 @@
         <v>782</v>
       </c>
       <c r="E17">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="F17">
+        <v>782</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="2"/>
-        <v>782</v>
-      </c>
-      <c r="G17">
+        <v>4356</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="3"/>
-        <v>4356</v>
-      </c>
-      <c r="H17">
+        <v>611524</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="4"/>
-        <v>611524</v>
-      </c>
-      <c r="I17">
+        <v>51612</v>
+      </c>
+      <c r="K17" s="43">
         <f t="shared" si="5"/>
-        <v>51612</v>
-      </c>
-      <c r="K17" s="43">
-        <f t="shared" si="0"/>
         <v>863.51381921160328</v>
       </c>
       <c r="L17" s="43">
@@ -6995,7 +7150,7 @@
         <v>5730.850481859412</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" hidden="1">
       <c r="A18" s="41">
         <v>17</v>
       </c>
@@ -7006,27 +7161,27 @@
         <v>836</v>
       </c>
       <c r="E18">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="F18">
+        <v>836</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="2"/>
-        <v>836</v>
-      </c>
-      <c r="G18">
+        <v>5329</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="3"/>
-        <v>5329</v>
-      </c>
-      <c r="H18">
+        <v>698896</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="4"/>
-        <v>698896</v>
-      </c>
-      <c r="I18">
+        <v>61028</v>
+      </c>
+      <c r="K18" s="43">
         <f t="shared" si="5"/>
-        <v>61028</v>
-      </c>
-      <c r="K18" s="43">
-        <f t="shared" si="0"/>
         <v>840.7329812354518</v>
       </c>
       <c r="L18" s="43">
@@ -7050,7 +7205,7 @@
         <v>470.99333900226804</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" hidden="1">
       <c r="A19" s="41">
         <v>18</v>
       </c>
@@ -7061,27 +7216,27 @@
         <v>837</v>
       </c>
       <c r="E19">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="F19">
+        <v>837</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="2"/>
-        <v>837</v>
-      </c>
-      <c r="G19">
+        <v>6084</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="3"/>
-        <v>6084</v>
-      </c>
-      <c r="H19">
+        <v>700569</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="4"/>
-        <v>700569</v>
-      </c>
-      <c r="I19">
+        <v>65286</v>
+      </c>
+      <c r="K19" s="43">
         <f t="shared" si="5"/>
-        <v>65286</v>
-      </c>
-      <c r="K19" s="43">
-        <f t="shared" si="0"/>
         <v>824.46095410962937</v>
       </c>
       <c r="L19" s="43">
@@ -7105,7 +7260,7 @@
         <v>428.58857709750612</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" hidden="1">
       <c r="A20" s="41">
         <v>19</v>
       </c>
@@ -7116,27 +7271,27 @@
         <v>791</v>
       </c>
       <c r="E20">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="F20">
+        <v>791</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="2"/>
-        <v>791</v>
-      </c>
-      <c r="G20">
+        <v>6400</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="3"/>
-        <v>6400</v>
-      </c>
-      <c r="H20">
+        <v>625681</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="4"/>
-        <v>625681</v>
-      </c>
-      <c r="I20">
+        <v>63280</v>
+      </c>
+      <c r="K20" s="43">
         <f t="shared" si="5"/>
-        <v>63280</v>
-      </c>
-      <c r="K20" s="43">
-        <f t="shared" si="0"/>
         <v>817.95214325930033</v>
       </c>
       <c r="L20" s="43">
@@ -7160,7 +7315,7 @@
         <v>4449.2076247165551</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" hidden="1">
       <c r="A21" s="41">
         <v>20</v>
       </c>
@@ -7171,27 +7326,27 @@
         <v>838</v>
       </c>
       <c r="E21">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="F21">
+        <v>838</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="2"/>
-        <v>838</v>
-      </c>
-      <c r="G21">
+        <v>4900</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="3"/>
-        <v>4900</v>
-      </c>
-      <c r="H21">
+        <v>702244</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="4"/>
-        <v>702244</v>
-      </c>
-      <c r="I21">
+        <v>58660</v>
+      </c>
+      <c r="K21" s="43">
         <f t="shared" si="5"/>
-        <v>58660</v>
-      </c>
-      <c r="K21" s="43">
-        <f t="shared" si="0"/>
         <v>850.49619751094531</v>
       </c>
       <c r="L21" s="43">
@@ -7215,7 +7370,7 @@
         <v>388.18381519274419</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" hidden="1">
       <c r="A22" s="41">
         <v>21</v>
       </c>
@@ -7226,27 +7381,27 @@
         <v>853</v>
       </c>
       <c r="E22">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="F22">
+        <v>853</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="2"/>
-        <v>853</v>
-      </c>
-      <c r="G22">
+        <v>4900</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="3"/>
-        <v>4900</v>
-      </c>
-      <c r="H22">
+        <v>727609</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="4"/>
-        <v>727609</v>
-      </c>
-      <c r="I22">
+        <v>59710</v>
+      </c>
+      <c r="K22" s="43">
         <f t="shared" si="5"/>
-        <v>59710</v>
-      </c>
-      <c r="K22" s="43">
-        <f t="shared" si="0"/>
         <v>850.49619751094531</v>
       </c>
       <c r="L22" s="43">
@@ -7270,7 +7425,7 @@
         <v>22.112386621315295</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" hidden="1">
       <c r="A23" s="41">
         <v>22</v>
       </c>
@@ -7281,27 +7436,27 @@
         <v>840</v>
       </c>
       <c r="E23">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="F23">
+        <v>840</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="2"/>
-        <v>840</v>
-      </c>
-      <c r="G23">
+        <v>6241</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="3"/>
-        <v>6241</v>
-      </c>
-      <c r="H23">
+        <v>705600</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="4"/>
-        <v>705600</v>
-      </c>
-      <c r="I23">
+        <v>66360</v>
+      </c>
+      <c r="K23" s="43">
         <f t="shared" si="5"/>
-        <v>66360</v>
-      </c>
-      <c r="K23" s="43">
-        <f t="shared" si="0"/>
         <v>821.20654868446491</v>
       </c>
       <c r="L23" s="43">
@@ -7325,7 +7480,7 @@
         <v>313.37429138322034</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" hidden="1">
       <c r="A24" s="41">
         <v>23</v>
       </c>
@@ -7336,27 +7491,27 @@
         <v>740</v>
       </c>
       <c r="E24">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="F24">
+        <v>740</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="2"/>
-        <v>740</v>
-      </c>
-      <c r="G24">
+        <v>8649</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="3"/>
-        <v>8649</v>
-      </c>
-      <c r="H24">
+        <v>547600</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="4"/>
-        <v>547600</v>
-      </c>
-      <c r="I24">
+        <v>68820</v>
+      </c>
+      <c r="K24" s="43">
         <f t="shared" si="5"/>
-        <v>68820</v>
-      </c>
-      <c r="K24" s="43">
-        <f t="shared" si="0"/>
         <v>775.64487273216196</v>
       </c>
       <c r="L24" s="43">
@@ -7380,7 +7535,7 @@
         <v>13853.850481859414</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" hidden="1">
       <c r="A25" s="41">
         <v>24</v>
       </c>
@@ -7391,27 +7546,27 @@
         <v>763</v>
       </c>
       <c r="E25">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="F25">
+        <v>763</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="2"/>
-        <v>763</v>
-      </c>
-      <c r="G25">
+        <v>6400</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="3"/>
-        <v>6400</v>
-      </c>
-      <c r="H25">
+        <v>582169</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="4"/>
-        <v>582169</v>
-      </c>
-      <c r="I25">
+        <v>61040</v>
+      </c>
+      <c r="K25" s="43">
         <f t="shared" si="5"/>
-        <v>61040</v>
-      </c>
-      <c r="K25" s="43">
-        <f t="shared" si="0"/>
         <v>817.95214325930033</v>
       </c>
       <c r="L25" s="43">
@@ -7435,7 +7590,7 @@
         <v>8968.540958049889</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" hidden="1">
       <c r="A26" s="41">
         <v>25</v>
       </c>
@@ -7446,27 +7601,27 @@
         <v>778</v>
       </c>
       <c r="E26">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="F26">
+        <v>778</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="2"/>
-        <v>778</v>
-      </c>
-      <c r="G26">
+        <v>6084</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="3"/>
-        <v>6084</v>
-      </c>
-      <c r="H26">
+        <v>605284</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="4"/>
-        <v>605284</v>
-      </c>
-      <c r="I26">
+        <v>60684</v>
+      </c>
+      <c r="K26" s="43">
         <f t="shared" si="5"/>
-        <v>60684</v>
-      </c>
-      <c r="K26" s="43">
-        <f t="shared" si="0"/>
         <v>824.46095410962937</v>
       </c>
       <c r="L26" s="43">
@@ -7490,7 +7645,7 @@
         <v>6352.4695294784597</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" hidden="1">
       <c r="A27" s="41">
         <v>26</v>
       </c>
@@ -7501,27 +7656,27 @@
         <v>855</v>
       </c>
       <c r="E27">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="F27">
+        <v>855</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="2"/>
-        <v>855</v>
-      </c>
-      <c r="G27">
+        <v>4900</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="3"/>
-        <v>4900</v>
-      </c>
-      <c r="H27">
+        <v>731025</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="4"/>
-        <v>731025</v>
-      </c>
-      <c r="I27">
+        <v>59850</v>
+      </c>
+      <c r="K27" s="43">
         <f t="shared" si="5"/>
-        <v>59850</v>
-      </c>
-      <c r="K27" s="43">
-        <f t="shared" si="0"/>
         <v>850.49619751094531</v>
       </c>
       <c r="L27" s="43">
@@ -7545,7 +7700,7 @@
         <v>7.3028628117914414</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" hidden="1">
       <c r="A28" s="41">
         <v>27</v>
       </c>
@@ -7556,27 +7711,27 @@
         <v>875</v>
       </c>
       <c r="E28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="F28">
+        <v>875</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="2"/>
-        <v>875</v>
-      </c>
-      <c r="G28">
+        <v>3600</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="3"/>
-        <v>3600</v>
-      </c>
-      <c r="H28">
+        <v>765625</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="4"/>
-        <v>765625</v>
-      </c>
-      <c r="I28">
+        <v>52500</v>
+      </c>
+      <c r="K28" s="43">
         <f t="shared" si="5"/>
-        <v>52500</v>
-      </c>
-      <c r="K28" s="43">
-        <f t="shared" si="0"/>
         <v>883.04025176259029</v>
       </c>
       <c r="L28" s="43">
@@ -7600,7 +7755,7 @@
         <v>299.20762471655291</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" hidden="1">
       <c r="A29" s="41">
         <v>28</v>
       </c>
@@ -7611,27 +7766,27 @@
         <v>868</v>
       </c>
       <c r="E29">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="F29">
+        <v>868</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="2"/>
-        <v>868</v>
-      </c>
-      <c r="G29">
+        <v>6084</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="3"/>
-        <v>6084</v>
-      </c>
-      <c r="H29">
+        <v>753424</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="4"/>
-        <v>753424</v>
-      </c>
-      <c r="I29">
+        <v>67704</v>
+      </c>
+      <c r="K29" s="43">
         <f t="shared" si="5"/>
-        <v>67704</v>
-      </c>
-      <c r="K29" s="43">
-        <f t="shared" si="0"/>
         <v>824.46095410962937</v>
       </c>
       <c r="L29" s="43">
@@ -7655,7 +7810,7 @@
         <v>106.0409580498864</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" hidden="1">
       <c r="A30" s="41">
         <v>29</v>
       </c>
@@ -7666,27 +7821,27 @@
         <v>880</v>
       </c>
       <c r="E30">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="F30">
+        <v>880</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="2"/>
-        <v>880</v>
-      </c>
-      <c r="G30">
+        <v>2500</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="3"/>
-        <v>2500</v>
-      </c>
-      <c r="H30">
+        <v>774400</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="4"/>
-        <v>774400</v>
-      </c>
-      <c r="I30">
+        <v>44000</v>
+      </c>
+      <c r="K30" s="43">
         <f t="shared" si="5"/>
-        <v>44000</v>
-      </c>
-      <c r="K30" s="43">
-        <f t="shared" si="0"/>
         <v>915.58430601423515</v>
       </c>
       <c r="L30" s="43">
@@ -7710,7 +7865,7 @@
         <v>497.18381519274328</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" hidden="1">
       <c r="A31" s="41">
         <v>30</v>
       </c>
@@ -7721,27 +7876,27 @@
         <v>905</v>
       </c>
       <c r="E31">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="F31">
+        <v>905</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="2"/>
-        <v>905</v>
-      </c>
-      <c r="G31">
+        <v>4900</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="3"/>
-        <v>4900</v>
-      </c>
-      <c r="H31">
+        <v>819025</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="4"/>
-        <v>819025</v>
-      </c>
-      <c r="I31">
+        <v>63350</v>
+      </c>
+      <c r="K31" s="43">
         <f t="shared" si="5"/>
-        <v>63350</v>
-      </c>
-      <c r="K31" s="43">
-        <f t="shared" si="0"/>
         <v>850.49619751094531</v>
       </c>
       <c r="L31" s="43">
@@ -7765,7 +7920,7 @@
         <v>2237.064767573695</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" hidden="1">
       <c r="A32" s="41">
         <v>31</v>
       </c>
@@ -7776,27 +7931,27 @@
         <v>895</v>
       </c>
       <c r="E32">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="F32">
+        <v>895</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="2"/>
-        <v>895</v>
-      </c>
-      <c r="G32">
+        <v>4761</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="3"/>
-        <v>4761</v>
-      </c>
-      <c r="H32">
+        <v>801025</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="4"/>
-        <v>801025</v>
-      </c>
-      <c r="I32">
+        <v>61755</v>
+      </c>
+      <c r="K32" s="43">
         <f t="shared" si="5"/>
-        <v>61755</v>
-      </c>
-      <c r="K32" s="43">
-        <f t="shared" si="0"/>
         <v>853.75060293610977</v>
       </c>
       <c r="L32" s="43">
@@ -7820,7 +7975,7 @@
         <v>1391.1123866213143</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" hidden="1">
       <c r="A33" s="41">
         <v>32</v>
       </c>
@@ -7831,27 +7986,27 @@
         <v>720</v>
       </c>
       <c r="E33">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="F33">
+        <v>720</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="G33">
+        <v>15625</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="3"/>
-        <v>15625</v>
-      </c>
-      <c r="H33">
+        <v>518400</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="4"/>
-        <v>518400</v>
-      </c>
-      <c r="I33">
+        <v>90000</v>
+      </c>
+      <c r="K33" s="43">
         <f t="shared" si="5"/>
-        <v>90000</v>
-      </c>
-      <c r="K33" s="43">
-        <f t="shared" si="0"/>
         <v>671.5038991268982</v>
       </c>
       <c r="L33" s="43">
@@ -7875,7 +8030,7 @@
         <v>18961.945719954652</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" hidden="1">
       <c r="A34" s="41">
         <v>33</v>
       </c>
@@ -7886,27 +8041,27 @@
         <v>712</v>
       </c>
       <c r="E34">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="F34">
+        <v>712</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="2"/>
-        <v>712</v>
-      </c>
-      <c r="G34">
+        <v>6400</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="3"/>
-        <v>6400</v>
-      </c>
-      <c r="H34">
+        <v>506944</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="4"/>
-        <v>506944</v>
-      </c>
-      <c r="I34">
+        <v>56960</v>
+      </c>
+      <c r="K34" s="43">
         <f t="shared" si="5"/>
-        <v>56960</v>
-      </c>
-      <c r="K34" s="43">
-        <f t="shared" ref="K34:K65" si="11">$I$91+$I$90*E34</f>
         <v>817.95214325930033</v>
       </c>
       <c r="L34" s="43">
@@ -7930,7 +8085,7 @@
         <v>21229.183815192748</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" hidden="1">
       <c r="A35" s="41">
         <v>34</v>
       </c>
@@ -7941,27 +8096,27 @@
         <v>703</v>
       </c>
       <c r="E35">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="F35">
+        <v>703</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="2"/>
-        <v>703</v>
-      </c>
-      <c r="G35">
+        <v>9801</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="3"/>
-        <v>9801</v>
-      </c>
-      <c r="H35">
+        <v>494209</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="4"/>
-        <v>494209</v>
-      </c>
-      <c r="I35">
+        <v>69597</v>
+      </c>
+      <c r="K35" s="43">
         <f t="shared" si="5"/>
-        <v>69597</v>
-      </c>
-      <c r="K35" s="43">
-        <f t="shared" si="11"/>
         <v>756.11844018117495</v>
       </c>
       <c r="L35" s="43">
@@ -7985,7 +8140,7 @@
         <v>23932.826672335603</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" hidden="1">
       <c r="A36" s="41">
         <v>35</v>
       </c>
@@ -7996,27 +8151,27 @@
         <v>741</v>
       </c>
       <c r="E36">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="F36">
+        <v>741</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="2"/>
-        <v>741</v>
-      </c>
-      <c r="G36">
+        <v>6400</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="3"/>
-        <v>6400</v>
-      </c>
-      <c r="H36">
+        <v>549081</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="4"/>
-        <v>549081</v>
-      </c>
-      <c r="I36">
+        <v>59280</v>
+      </c>
+      <c r="K36" s="43">
         <f t="shared" si="5"/>
-        <v>59280</v>
-      </c>
-      <c r="K36" s="43">
-        <f t="shared" si="11"/>
         <v>817.95214325930033</v>
       </c>
       <c r="L36" s="43">
@@ -8040,7 +8195,7 @@
         <v>13619.44571995465</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" hidden="1">
       <c r="A37" s="41">
         <v>36</v>
       </c>
@@ -8051,27 +8206,27 @@
         <v>792</v>
       </c>
       <c r="E37">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="F37">
+        <v>792</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="2"/>
-        <v>792</v>
-      </c>
-      <c r="G37">
+        <v>3721</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="3"/>
-        <v>3721</v>
-      </c>
-      <c r="H37">
+        <v>627264</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="4"/>
-        <v>627264</v>
-      </c>
-      <c r="I37">
+        <v>48312</v>
+      </c>
+      <c r="K37" s="43">
         <f t="shared" si="5"/>
-        <v>48312</v>
-      </c>
-      <c r="K37" s="43">
-        <f t="shared" si="11"/>
         <v>879.78584633742571</v>
       </c>
       <c r="L37" s="43">
@@ -8095,7 +8250,7 @@
         <v>4316.8028628117927</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" hidden="1">
       <c r="A38" s="41">
         <v>37</v>
       </c>
@@ -8106,27 +8261,27 @@
         <v>808</v>
       </c>
       <c r="E38">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="F38">
+        <v>808</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="2"/>
-        <v>808</v>
-      </c>
-      <c r="G38">
+        <v>2500</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="3"/>
-        <v>2500</v>
-      </c>
-      <c r="H38">
+        <v>652864</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="4"/>
-        <v>652864</v>
-      </c>
-      <c r="I38">
+        <v>40400</v>
+      </c>
+      <c r="K38" s="43">
         <f t="shared" si="5"/>
-        <v>40400</v>
-      </c>
-      <c r="K38" s="43">
-        <f t="shared" si="11"/>
         <v>915.58430601423515</v>
       </c>
       <c r="L38" s="43">
@@ -8150,7 +8305,7 @@
         <v>2470.3266723356019</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" hidden="1">
       <c r="A39" s="41">
         <v>38</v>
       </c>
@@ -8161,27 +8316,27 @@
         <v>761</v>
       </c>
       <c r="E39">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="F39">
+        <v>761</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="2"/>
-        <v>761</v>
-      </c>
-      <c r="G39">
+        <v>3025</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="3"/>
-        <v>3025</v>
-      </c>
-      <c r="H39">
+        <v>579121</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="4"/>
-        <v>579121</v>
-      </c>
-      <c r="I39">
+        <v>41855</v>
+      </c>
+      <c r="K39" s="43">
         <f t="shared" si="5"/>
-        <v>41855</v>
-      </c>
-      <c r="K39" s="43">
-        <f t="shared" si="11"/>
         <v>899.31227888841272</v>
       </c>
       <c r="L39" s="43">
@@ -8205,7 +8360,7 @@
         <v>9351.350481859412</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" hidden="1">
       <c r="A40" s="41">
         <v>39</v>
       </c>
@@ -8216,27 +8371,27 @@
         <v>785</v>
       </c>
       <c r="E40">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="F40">
+        <v>785</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="2"/>
-        <v>785</v>
-      </c>
-      <c r="G40">
+        <v>3600</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="3"/>
-        <v>3600</v>
-      </c>
-      <c r="H40">
+        <v>616225</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="4"/>
-        <v>616225</v>
-      </c>
-      <c r="I40">
+        <v>47100</v>
+      </c>
+      <c r="K40" s="43">
         <f t="shared" si="5"/>
-        <v>47100</v>
-      </c>
-      <c r="K40" s="43">
-        <f t="shared" si="11"/>
         <v>883.04025176259029</v>
       </c>
       <c r="L40" s="43">
@@ -8260,7 +8415,7 @@
         <v>5285.6361961451266</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" hidden="1">
       <c r="A41" s="41">
         <v>40</v>
       </c>
@@ -8271,27 +8426,27 @@
         <v>801</v>
       </c>
       <c r="E41">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="F41">
+        <v>801</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="2"/>
-        <v>801</v>
-      </c>
-      <c r="G41">
+        <v>3600</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="3"/>
-        <v>3600</v>
-      </c>
-      <c r="H41">
+        <v>641601</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="4"/>
-        <v>641601</v>
-      </c>
-      <c r="I41">
+        <v>48060</v>
+      </c>
+      <c r="K41" s="43">
         <f t="shared" si="5"/>
-        <v>48060</v>
-      </c>
-      <c r="K41" s="43">
-        <f t="shared" si="11"/>
         <v>883.04025176259029</v>
       </c>
       <c r="L41" s="43">
@@ -8315,7 +8470,7 @@
         <v>3215.1600056689354</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" hidden="1">
       <c r="A42" s="41">
         <v>41</v>
       </c>
@@ -8326,27 +8481,27 @@
         <v>810</v>
       </c>
       <c r="E42">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="F42">
+        <v>810</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="2"/>
-        <v>810</v>
-      </c>
-      <c r="G42">
+        <v>4225</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="3"/>
-        <v>4225</v>
-      </c>
-      <c r="H42">
+        <v>656100</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="4"/>
-        <v>656100</v>
-      </c>
-      <c r="I42">
+        <v>52650</v>
+      </c>
+      <c r="K42" s="43">
         <f t="shared" si="5"/>
-        <v>52650</v>
-      </c>
-      <c r="K42" s="43">
-        <f t="shared" si="11"/>
         <v>866.76822463676785</v>
       </c>
       <c r="L42" s="43">
@@ -8370,7 +8525,7 @@
         <v>2275.517148526078</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" hidden="1">
       <c r="A43" s="41">
         <v>42</v>
       </c>
@@ -8381,27 +8536,27 @@
         <v>1013</v>
       </c>
       <c r="E43">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="F43">
+        <v>1013</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="2"/>
-        <v>1013</v>
-      </c>
-      <c r="G43">
+        <v>4356</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="3"/>
-        <v>4356</v>
-      </c>
-      <c r="H43">
+        <v>1026169</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="4"/>
-        <v>1026169</v>
-      </c>
-      <c r="I43">
+        <v>66858</v>
+      </c>
+      <c r="K43" s="43">
         <f t="shared" si="5"/>
-        <v>66858</v>
-      </c>
-      <c r="K43" s="43">
-        <f t="shared" si="11"/>
         <v>863.51381921160328</v>
       </c>
       <c r="L43" s="43">
@@ -8425,7 +8580,7 @@
         <v>24117.350481859408</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" hidden="1">
       <c r="A44" s="41">
         <v>43</v>
       </c>
@@ -8436,27 +8591,27 @@
         <v>882</v>
       </c>
       <c r="E44">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="F44">
+        <v>882</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="2"/>
-        <v>882</v>
-      </c>
-      <c r="G44">
+        <v>3364</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="3"/>
-        <v>3364</v>
-      </c>
-      <c r="H44">
+        <v>777924</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="4"/>
-        <v>777924</v>
-      </c>
-      <c r="I44">
+        <v>51156</v>
+      </c>
+      <c r="K44" s="43">
         <f t="shared" si="5"/>
-        <v>51156</v>
-      </c>
-      <c r="K44" s="43">
-        <f t="shared" si="11"/>
         <v>889.54906261291922</v>
       </c>
       <c r="L44" s="43">
@@ -8480,7 +8635,7 @@
         <v>590.37429138321943</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" hidden="1">
       <c r="A45" s="41">
         <v>44</v>
       </c>
@@ -8491,27 +8646,27 @@
         <v>861</v>
       </c>
       <c r="E45">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="F45">
+        <v>861</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="2"/>
-        <v>861</v>
-      </c>
-      <c r="G45">
+        <v>3844</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="3"/>
-        <v>3844</v>
-      </c>
-      <c r="H45">
+        <v>741321</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="4"/>
-        <v>741321</v>
-      </c>
-      <c r="I45">
+        <v>53382</v>
+      </c>
+      <c r="K45" s="43">
         <f t="shared" si="5"/>
-        <v>53382</v>
-      </c>
-      <c r="K45" s="43">
-        <f t="shared" si="11"/>
         <v>876.53144091226125</v>
       </c>
       <c r="L45" s="43">
@@ -8535,7 +8690,7 @@
         <v>10.874291383219884</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" hidden="1">
       <c r="A46" s="41">
         <v>45</v>
       </c>
@@ -8546,27 +8701,27 @@
         <v>845</v>
       </c>
       <c r="E46">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="F46">
+        <v>845</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="2"/>
-        <v>845</v>
-      </c>
-      <c r="G46">
+        <v>3600</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="3"/>
-        <v>3600</v>
-      </c>
-      <c r="H46">
+        <v>714025</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="4"/>
-        <v>714025</v>
-      </c>
-      <c r="I46">
+        <v>50700</v>
+      </c>
+      <c r="K46" s="43">
         <f t="shared" si="5"/>
-        <v>50700</v>
-      </c>
-      <c r="K46" s="43">
-        <f t="shared" si="11"/>
         <v>883.04025176259029</v>
       </c>
       <c r="L46" s="43">
@@ -8590,7 +8745,7 @@
         <v>161.35048185941071</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" hidden="1">
       <c r="A47" s="41">
         <v>46</v>
       </c>
@@ -8601,27 +8756,27 @@
         <v>865</v>
       </c>
       <c r="E47">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="F47">
+        <v>865</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="2"/>
-        <v>865</v>
-      </c>
-      <c r="G47">
+        <v>8100</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="3"/>
-        <v>8100</v>
-      </c>
-      <c r="H47">
+        <v>748225</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="4"/>
-        <v>748225</v>
-      </c>
-      <c r="I47">
+        <v>77850</v>
+      </c>
+      <c r="K47" s="43">
         <f t="shared" si="5"/>
-        <v>77850</v>
-      </c>
-      <c r="K47" s="43">
-        <f t="shared" si="11"/>
         <v>785.40808900765546</v>
       </c>
       <c r="L47" s="43">
@@ -8645,7 +8800,7 @@
         <v>53.255243764172178</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17" hidden="1">
       <c r="A48" s="41">
         <v>47</v>
       </c>
@@ -8656,27 +8811,27 @@
         <v>883</v>
       </c>
       <c r="E48">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="F48">
+        <v>883</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="2"/>
-        <v>883</v>
-      </c>
-      <c r="G48">
+        <v>6084</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="3"/>
-        <v>6084</v>
-      </c>
-      <c r="H48">
+        <v>779689</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="4"/>
-        <v>779689</v>
-      </c>
-      <c r="I48">
+        <v>68874</v>
+      </c>
+      <c r="K48" s="43">
         <f t="shared" si="5"/>
-        <v>68874</v>
-      </c>
-      <c r="K48" s="43">
-        <f t="shared" si="11"/>
         <v>824.46095410962937</v>
       </c>
       <c r="L48" s="43">
@@ -8700,7 +8855,7 @@
         <v>639.9695294784575</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:17" hidden="1">
       <c r="A49" s="41">
         <v>48</v>
       </c>
@@ -8711,27 +8866,27 @@
         <v>881</v>
       </c>
       <c r="E49">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="F49">
+        <v>881</v>
+      </c>
+      <c r="G49">
         <f t="shared" si="2"/>
-        <v>881</v>
-      </c>
-      <c r="G49">
+        <v>7396</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="3"/>
-        <v>7396</v>
-      </c>
-      <c r="H49">
+        <v>776161</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="4"/>
-        <v>776161</v>
-      </c>
-      <c r="I49">
+        <v>75766</v>
+      </c>
+      <c r="K49" s="43">
         <f t="shared" si="5"/>
-        <v>75766</v>
-      </c>
-      <c r="K49" s="43">
-        <f t="shared" si="11"/>
         <v>798.42571070831343</v>
       </c>
       <c r="L49" s="43">
@@ -8755,7 +8910,7 @@
         <v>542.77905328798136</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:17" hidden="1">
       <c r="A50" s="41">
         <v>49</v>
       </c>
@@ -8766,27 +8921,27 @@
         <v>921</v>
       </c>
       <c r="E50">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="F50">
+        <v>921</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="2"/>
-        <v>921</v>
-      </c>
-      <c r="G50">
+        <v>7396</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="3"/>
-        <v>7396</v>
-      </c>
-      <c r="H50">
+        <v>848241</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="4"/>
-        <v>848241</v>
-      </c>
-      <c r="I50">
+        <v>79206</v>
+      </c>
+      <c r="K50" s="43">
         <f t="shared" si="5"/>
-        <v>79206</v>
-      </c>
-      <c r="K50" s="43">
-        <f t="shared" si="11"/>
         <v>798.42571070831343</v>
       </c>
       <c r="L50" s="43">
@@ -8810,7 +8965,7 @@
         <v>4006.5885770975042</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:17" hidden="1">
       <c r="A51" s="41">
         <v>50</v>
       </c>
@@ -8821,27 +8976,27 @@
         <v>816</v>
       </c>
       <c r="E51">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="F51">
+        <v>816</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="2"/>
-        <v>816</v>
-      </c>
-      <c r="G51">
+        <v>4761</v>
+      </c>
+      <c r="H51">
         <f t="shared" si="3"/>
-        <v>4761</v>
-      </c>
-      <c r="H51">
+        <v>665856</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="4"/>
-        <v>665856</v>
-      </c>
-      <c r="I51">
+        <v>56304</v>
+      </c>
+      <c r="K51" s="43">
         <f t="shared" si="5"/>
-        <v>56304</v>
-      </c>
-      <c r="K51" s="43">
-        <f t="shared" si="11"/>
         <v>853.75060293610977</v>
       </c>
       <c r="L51" s="43">
@@ -8865,7 +9020,7 @@
         <v>1739.0885770975065</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:17" hidden="1">
       <c r="A52" s="41">
         <v>51</v>
       </c>
@@ -8876,27 +9031,27 @@
         <v>837</v>
       </c>
       <c r="E52">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="F52">
+        <v>837</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="2"/>
-        <v>837</v>
-      </c>
-      <c r="G52">
+        <v>5476</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="3"/>
-        <v>5476</v>
-      </c>
-      <c r="H52">
+        <v>700569</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="4"/>
-        <v>700569</v>
-      </c>
-      <c r="I52">
+        <v>61938</v>
+      </c>
+      <c r="K52" s="43">
         <f t="shared" si="5"/>
-        <v>61938</v>
-      </c>
-      <c r="K52" s="43">
-        <f t="shared" si="11"/>
         <v>837.47857581028734</v>
       </c>
       <c r="L52" s="43">
@@ -8920,7 +9075,7 @@
         <v>428.58857709750612</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:17" hidden="1">
       <c r="A53" s="41">
         <v>52</v>
       </c>
@@ -8931,27 +9086,27 @@
         <v>1056</v>
       </c>
       <c r="E53">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F53">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="F53">
+        <v>1056</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="2"/>
-        <v>1056</v>
-      </c>
-      <c r="G53">
+        <v>1600</v>
+      </c>
+      <c r="H53">
         <f t="shared" si="3"/>
-        <v>1600</v>
-      </c>
-      <c r="H53">
+        <v>1115136</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="4"/>
-        <v>1115136</v>
-      </c>
-      <c r="I53">
+        <v>42240</v>
+      </c>
+      <c r="K53" s="43">
         <f t="shared" si="5"/>
-        <v>42240</v>
-      </c>
-      <c r="K53" s="43">
-        <f t="shared" si="11"/>
         <v>948.12836026588013</v>
       </c>
       <c r="L53" s="43">
@@ -8975,7 +9130,7 @@
         <v>39321.945719954645</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:17" hidden="1">
       <c r="A54" s="41">
         <v>53</v>
       </c>
@@ -8986,27 +9141,27 @@
         <v>1034</v>
       </c>
       <c r="E54">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F54">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="F54">
+        <v>1034</v>
+      </c>
+      <c r="G54">
         <f t="shared" si="2"/>
-        <v>1034</v>
-      </c>
-      <c r="G54">
+        <v>1600</v>
+      </c>
+      <c r="H54">
         <f t="shared" si="3"/>
-        <v>1600</v>
-      </c>
-      <c r="H54">
+        <v>1069156</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="4"/>
-        <v>1069156</v>
-      </c>
-      <c r="I54">
+        <v>41360</v>
+      </c>
+      <c r="K54" s="43">
         <f t="shared" si="5"/>
-        <v>41360</v>
-      </c>
-      <c r="K54" s="43">
-        <f t="shared" si="11"/>
         <v>948.12836026588013</v>
       </c>
       <c r="L54" s="43">
@@ -9030,7 +9185,7 @@
         <v>31080.850481859408</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:17" hidden="1">
       <c r="A55" s="41">
         <v>54</v>
       </c>
@@ -9041,27 +9196,27 @@
         <v>774</v>
       </c>
       <c r="E55">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="F55">
+        <v>774</v>
+      </c>
+      <c r="G55">
         <f t="shared" si="2"/>
-        <v>774</v>
-      </c>
-      <c r="G55">
+        <v>6084</v>
+      </c>
+      <c r="H55">
         <f t="shared" si="3"/>
-        <v>6084</v>
-      </c>
-      <c r="H55">
+        <v>599076</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="4"/>
-        <v>599076</v>
-      </c>
-      <c r="I55">
+        <v>60372</v>
+      </c>
+      <c r="K55" s="43">
         <f t="shared" si="5"/>
-        <v>60372</v>
-      </c>
-      <c r="K55" s="43">
-        <f t="shared" si="11"/>
         <v>824.46095410962937</v>
       </c>
       <c r="L55" s="43">
@@ -9085,7 +9240,7 @@
         <v>7006.0885770975074</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:17" hidden="1">
       <c r="A56" s="41">
         <v>55</v>
       </c>
@@ -9096,27 +9251,27 @@
         <v>821</v>
       </c>
       <c r="E56">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F56">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="F56">
+        <v>821</v>
+      </c>
+      <c r="G56">
         <f t="shared" si="2"/>
-        <v>821</v>
-      </c>
-      <c r="G56">
+        <v>4900</v>
+      </c>
+      <c r="H56">
         <f t="shared" si="3"/>
-        <v>4900</v>
-      </c>
-      <c r="H56">
+        <v>674041</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="4"/>
-        <v>674041</v>
-      </c>
-      <c r="I56">
+        <v>57470</v>
+      </c>
+      <c r="K56" s="43">
         <f t="shared" si="5"/>
-        <v>57470</v>
-      </c>
-      <c r="K56" s="43">
-        <f t="shared" si="11"/>
         <v>850.49619751094531</v>
       </c>
       <c r="L56" s="43">
@@ -9140,7 +9295,7 @@
         <v>1347.0647675736968</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:17" hidden="1">
       <c r="A57" s="41">
         <v>56</v>
       </c>
@@ -9151,27 +9306,27 @@
         <v>850</v>
       </c>
       <c r="E57">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="F57">
+        <v>850</v>
+      </c>
+      <c r="G57">
         <f t="shared" si="2"/>
-        <v>850</v>
-      </c>
-      <c r="G57">
+        <v>6084</v>
+      </c>
+      <c r="H57">
         <f t="shared" si="3"/>
-        <v>6084</v>
-      </c>
-      <c r="H57">
+        <v>722500</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="4"/>
-        <v>722500</v>
-      </c>
-      <c r="I57">
+        <v>66300</v>
+      </c>
+      <c r="K57" s="43">
         <f t="shared" si="5"/>
-        <v>66300</v>
-      </c>
-      <c r="K57" s="43">
-        <f t="shared" si="11"/>
         <v>824.46095410962937</v>
       </c>
       <c r="L57" s="43">
@@ -9195,7 +9350,7 @@
         <v>59.326672335601074</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:17" hidden="1">
       <c r="A58" s="41">
         <v>57</v>
       </c>
@@ -9206,27 +9361,27 @@
         <v>870</v>
       </c>
       <c r="E58">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F58">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="F58">
+        <v>870</v>
+      </c>
+      <c r="G58">
         <f t="shared" si="2"/>
-        <v>870</v>
-      </c>
-      <c r="G58">
+        <v>4900</v>
+      </c>
+      <c r="H58">
         <f t="shared" si="3"/>
-        <v>4900</v>
-      </c>
-      <c r="H58">
+        <v>756900</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="4"/>
-        <v>756900</v>
-      </c>
-      <c r="I58">
+        <v>60900</v>
+      </c>
+      <c r="K58" s="43">
         <f t="shared" si="5"/>
-        <v>60900</v>
-      </c>
-      <c r="K58" s="43">
-        <f t="shared" si="11"/>
         <v>850.49619751094531</v>
       </c>
       <c r="L58" s="43">
@@ -9250,7 +9405,7 @@
         <v>151.23143424036255</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:17" hidden="1">
       <c r="A59" s="41">
         <v>58</v>
       </c>
@@ -9261,27 +9416,27 @@
         <v>931</v>
       </c>
       <c r="E59">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F59">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="F59">
+        <v>931</v>
+      </c>
+      <c r="G59">
         <f t="shared" si="2"/>
-        <v>931</v>
-      </c>
-      <c r="G59">
+        <v>3025</v>
+      </c>
+      <c r="H59">
         <f t="shared" si="3"/>
-        <v>3025</v>
-      </c>
-      <c r="H59">
+        <v>866761</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="4"/>
-        <v>866761</v>
-      </c>
-      <c r="I59">
+        <v>51205</v>
+      </c>
+      <c r="K59" s="43">
         <f t="shared" si="5"/>
-        <v>51205</v>
-      </c>
-      <c r="K59" s="43">
-        <f t="shared" si="11"/>
         <v>899.31227888841272</v>
       </c>
       <c r="L59" s="43">
@@ -9305,7 +9460,7 @@
         <v>5372.5409580498854</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:17" hidden="1">
       <c r="A60" s="41">
         <v>59</v>
       </c>
@@ -9316,27 +9471,27 @@
         <v>930</v>
       </c>
       <c r="E60">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="F60">
+        <v>930</v>
+      </c>
+      <c r="G60">
         <f t="shared" si="2"/>
-        <v>930</v>
-      </c>
-      <c r="G60">
+        <v>3025</v>
+      </c>
+      <c r="H60">
         <f t="shared" si="3"/>
-        <v>3025</v>
-      </c>
-      <c r="H60">
+        <v>864900</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="4"/>
-        <v>864900</v>
-      </c>
-      <c r="I60">
+        <v>51150</v>
+      </c>
+      <c r="K60" s="43">
         <f t="shared" si="5"/>
-        <v>51150</v>
-      </c>
-      <c r="K60" s="43">
-        <f t="shared" si="11"/>
         <v>899.31227888841272</v>
       </c>
       <c r="L60" s="43">
@@ -9360,7 +9515,7 @@
         <v>5226.9457199546468</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:17" hidden="1">
       <c r="A61" s="41">
         <v>60</v>
       </c>
@@ -9371,27 +9526,27 @@
         <v>808</v>
       </c>
       <c r="E61">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F61">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="F61">
+        <v>808</v>
+      </c>
+      <c r="G61">
         <f t="shared" si="2"/>
-        <v>808</v>
-      </c>
-      <c r="G61">
+        <v>6400</v>
+      </c>
+      <c r="H61">
         <f t="shared" si="3"/>
-        <v>6400</v>
-      </c>
-      <c r="H61">
+        <v>652864</v>
+      </c>
+      <c r="I61">
         <f t="shared" si="4"/>
-        <v>652864</v>
-      </c>
-      <c r="I61">
+        <v>64640</v>
+      </c>
+      <c r="K61" s="43">
         <f t="shared" si="5"/>
-        <v>64640</v>
-      </c>
-      <c r="K61" s="43">
-        <f t="shared" si="11"/>
         <v>817.95214325930033</v>
       </c>
       <c r="L61" s="43">
@@ -9415,7 +9570,7 @@
         <v>2470.3266723356019</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:17" hidden="1">
       <c r="A62" s="41">
         <v>61</v>
       </c>
@@ -9426,27 +9581,27 @@
         <v>828</v>
       </c>
       <c r="E62">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F62">
         <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="F62">
+        <v>828</v>
+      </c>
+      <c r="G62">
         <f t="shared" si="2"/>
-        <v>828</v>
-      </c>
-      <c r="G62">
+        <v>6084</v>
+      </c>
+      <c r="H62">
         <f t="shared" si="3"/>
-        <v>6084</v>
-      </c>
-      <c r="H62">
+        <v>685584</v>
+      </c>
+      <c r="I62">
         <f t="shared" si="4"/>
-        <v>685584</v>
-      </c>
-      <c r="I62">
+        <v>64584</v>
+      </c>
+      <c r="K62" s="43">
         <f t="shared" si="5"/>
-        <v>64584</v>
-      </c>
-      <c r="K62" s="43">
-        <f t="shared" si="11"/>
         <v>824.46095410962937</v>
       </c>
       <c r="L62" s="43">
@@ -9470,7 +9625,7 @@
         <v>882.23143424036346</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:17" hidden="1">
       <c r="A63" s="41">
         <v>62</v>
       </c>
@@ -9481,27 +9636,27 @@
         <v>719</v>
       </c>
       <c r="E63">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F63">
         <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="F63">
+        <v>719</v>
+      </c>
+      <c r="G63">
         <f t="shared" si="2"/>
-        <v>719</v>
-      </c>
-      <c r="G63">
+        <v>6084</v>
+      </c>
+      <c r="H63">
         <f t="shared" si="3"/>
-        <v>6084</v>
-      </c>
-      <c r="H63">
+        <v>516961</v>
+      </c>
+      <c r="I63">
         <f t="shared" si="4"/>
-        <v>516961</v>
-      </c>
-      <c r="I63">
+        <v>56082</v>
+      </c>
+      <c r="K63" s="43">
         <f t="shared" si="5"/>
-        <v>56082</v>
-      </c>
-      <c r="K63" s="43">
-        <f t="shared" si="11"/>
         <v>824.46095410962937</v>
       </c>
       <c r="L63" s="43">
@@ -9525,7 +9680,7 @@
         <v>19238.350481859412</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:17" hidden="1">
       <c r="A64" s="41">
         <v>63</v>
       </c>
@@ -9536,27 +9691,27 @@
         <v>707</v>
       </c>
       <c r="E64">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="F64">
         <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="F64">
+        <v>707</v>
+      </c>
+      <c r="G64">
         <f t="shared" si="2"/>
-        <v>707</v>
-      </c>
-      <c r="G64">
+        <v>4624</v>
+      </c>
+      <c r="H64">
         <f t="shared" si="3"/>
-        <v>4624</v>
-      </c>
-      <c r="H64">
+        <v>499849</v>
+      </c>
+      <c r="I64">
         <f t="shared" si="4"/>
-        <v>499849</v>
-      </c>
-      <c r="I64">
+        <v>48076</v>
+      </c>
+      <c r="K64" s="43">
         <f t="shared" si="5"/>
-        <v>48076</v>
-      </c>
-      <c r="K64" s="43">
-        <f t="shared" si="11"/>
         <v>857.00500836127435</v>
       </c>
       <c r="L64" s="43">
@@ -9580,7 +9735,7 @@
         <v>22711.207624716557</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:17" hidden="1">
       <c r="A65" s="41">
         <v>64</v>
       </c>
@@ -9591,27 +9746,27 @@
         <v>934</v>
       </c>
       <c r="E65">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F65">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="F65">
+        <v>934</v>
+      </c>
+      <c r="G65">
         <f t="shared" si="2"/>
-        <v>934</v>
-      </c>
-      <c r="G65">
+        <v>2025</v>
+      </c>
+      <c r="H65">
         <f t="shared" si="3"/>
-        <v>2025</v>
-      </c>
-      <c r="H65">
+        <v>872356</v>
+      </c>
+      <c r="I65">
         <f t="shared" si="4"/>
-        <v>872356</v>
-      </c>
-      <c r="I65">
+        <v>42030</v>
+      </c>
+      <c r="K65" s="43">
         <f t="shared" si="5"/>
-        <v>42030</v>
-      </c>
-      <c r="K65" s="43">
-        <f t="shared" si="11"/>
         <v>931.8563331400577</v>
       </c>
       <c r="L65" s="43">
@@ -9635,7 +9790,7 @@
         <v>5821.3266723355991</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:17" hidden="1">
       <c r="A66" s="41">
         <v>65</v>
       </c>
@@ -9646,27 +9801,27 @@
         <v>939</v>
       </c>
       <c r="E66">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="F66">
+        <v>939</v>
+      </c>
+      <c r="G66">
         <f t="shared" si="2"/>
-        <v>939</v>
-      </c>
-      <c r="G66">
+        <v>2025</v>
+      </c>
+      <c r="H66">
         <f t="shared" si="3"/>
-        <v>2025</v>
-      </c>
-      <c r="H66">
+        <v>881721</v>
+      </c>
+      <c r="I66">
         <f t="shared" si="4"/>
-        <v>881721</v>
-      </c>
-      <c r="I66">
+        <v>42255</v>
+      </c>
+      <c r="K66" s="43">
         <f t="shared" si="5"/>
-        <v>42255</v>
-      </c>
-      <c r="K66" s="43">
-        <f t="shared" ref="K66:K85" si="12">$I$91+$I$90*E66</f>
         <v>931.8563331400577</v>
       </c>
       <c r="L66" s="43">
@@ -9690,7 +9845,7 @@
         <v>6609.30286281179</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:17" hidden="1">
       <c r="A67" s="41">
         <v>66</v>
       </c>
@@ -9701,51 +9856,51 @@
         <v>977</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E85" si="13">B67</f>
+        <f t="shared" ref="E67:E85" si="11">B67</f>
         <v>47</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F85" si="14">C67</f>
+        <f t="shared" ref="F67:F85" si="12">C67</f>
         <v>977</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G85" si="15">E67^2</f>
+        <f t="shared" ref="G67:G85" si="13">E67^2</f>
         <v>2209</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H85" si="16">F67^2</f>
+        <f t="shared" ref="H67:H85" si="14">F67^2</f>
         <v>954529</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I85" si="17">E67*F67</f>
+        <f t="shared" ref="I67:I85" si="15">E67*F67</f>
         <v>45919</v>
       </c>
       <c r="K67" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="K67:K85" si="16">$I$91+$I$90*E67</f>
         <v>925.34752228972866</v>
       </c>
       <c r="L67" s="43">
-        <f t="shared" ref="L67:L85" si="18">(K67-$F$88)^2</f>
+        <f t="shared" ref="L67:L85" si="17">(K67-$F$88)^2</f>
         <v>4575.865146549746</v>
       </c>
       <c r="M67" s="43">
-        <f t="shared" ref="M67:M85" si="19">(F67-K67)^2</f>
+        <f t="shared" ref="M67:M85" si="18">(F67-K67)^2</f>
         <v>2667.9784536100778</v>
       </c>
       <c r="O67" s="43">
-        <f t="shared" ref="O67:O85" si="20">(E67-$E$88)*(F67-$F$88)</f>
+        <f t="shared" ref="O67:O85" si="19">(E67-$E$88)*(F67-$F$88)</f>
         <v>-2479.6862244897966</v>
       </c>
       <c r="P67" s="43">
-        <f t="shared" ref="P67:P85" si="21">(E67-$E$88)^2</f>
+        <f t="shared" ref="P67:P85" si="20">(E67-$E$88)^2</f>
         <v>432.04591836734721</v>
       </c>
       <c r="Q67" s="43">
-        <f t="shared" ref="Q67:Q85" si="22">(F67-$F$88)^2</f>
+        <f t="shared" ref="Q67:Q85" si="21">(F67-$F$88)^2</f>
         <v>14231.921910430836</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:17" hidden="1">
       <c r="A68" s="41">
         <v>67</v>
       </c>
@@ -9756,51 +9911,51 @@
         <v>896</v>
       </c>
       <c r="E68">
+        <f t="shared" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="12"/>
+        <v>896</v>
+      </c>
+      <c r="G68">
         <f t="shared" si="13"/>
-        <v>88</v>
-      </c>
-      <c r="F68">
+        <v>7744</v>
+      </c>
+      <c r="H68">
         <f t="shared" si="14"/>
-        <v>896</v>
-      </c>
-      <c r="G68">
+        <v>802816</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="15"/>
-        <v>7744</v>
-      </c>
-      <c r="H68">
+        <v>78848</v>
+      </c>
+      <c r="K68" s="43">
         <f t="shared" si="16"/>
-        <v>802816</v>
-      </c>
-      <c r="I68">
+        <v>791.91689985798439</v>
+      </c>
+      <c r="L68" s="43">
         <f t="shared" si="17"/>
-        <v>78848</v>
-      </c>
-      <c r="K68" s="43">
-        <f t="shared" si="12"/>
-        <v>791.91689985798439</v>
-      </c>
-      <c r="L68" s="43">
+        <v>4327.7295228212088</v>
+      </c>
+      <c r="M68" s="43">
         <f t="shared" si="18"/>
-        <v>4327.7295228212088</v>
-      </c>
-      <c r="M68" s="43">
+        <v>10833.29173517285</v>
+      </c>
+      <c r="O68" s="43">
         <f t="shared" si="19"/>
-        <v>10833.29173517285</v>
-      </c>
-      <c r="O68" s="43">
+        <v>774.15901360544171</v>
+      </c>
+      <c r="P68" s="43">
         <f t="shared" si="20"/>
-        <v>774.15901360544171</v>
-      </c>
-      <c r="P68" s="43">
+        <v>408.61734693877526</v>
+      </c>
+      <c r="Q68" s="43">
         <f t="shared" si="21"/>
-        <v>408.61734693877526</v>
-      </c>
-      <c r="Q68" s="43">
-        <f t="shared" si="22"/>
         <v>1466.7076247165523</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:17" hidden="1">
       <c r="A69" s="41">
         <v>68</v>
       </c>
@@ -9811,51 +9966,51 @@
         <v>921</v>
       </c>
       <c r="E69">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="12"/>
+        <v>921</v>
+      </c>
+      <c r="G69">
         <f t="shared" si="13"/>
-        <v>70</v>
-      </c>
-      <c r="F69">
+        <v>4900</v>
+      </c>
+      <c r="H69">
         <f t="shared" si="14"/>
-        <v>921</v>
-      </c>
-      <c r="G69">
+        <v>848241</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="15"/>
-        <v>4900</v>
-      </c>
-      <c r="H69">
+        <v>64470</v>
+      </c>
+      <c r="K69" s="43">
         <f t="shared" si="16"/>
-        <v>848241</v>
-      </c>
-      <c r="I69">
+        <v>850.49619751094531</v>
+      </c>
+      <c r="L69" s="43">
         <f t="shared" si="17"/>
-        <v>64470</v>
-      </c>
-      <c r="K69" s="43">
-        <f t="shared" si="12"/>
-        <v>850.49619751094531</v>
-      </c>
-      <c r="L69" s="43">
+        <v>51.929079791621426</v>
+      </c>
+      <c r="M69" s="43">
         <f t="shared" si="18"/>
-        <v>51.929079791621426</v>
-      </c>
-      <c r="M69" s="43">
+        <v>4970.786165415635</v>
+      </c>
+      <c r="O69" s="43">
         <f t="shared" si="19"/>
-        <v>4970.786165415635</v>
-      </c>
-      <c r="O69" s="43">
+        <v>140.15901360544177</v>
+      </c>
+      <c r="P69" s="43">
         <f t="shared" si="20"/>
-        <v>140.15901360544177</v>
-      </c>
-      <c r="P69" s="43">
+        <v>4.9030612244897691</v>
+      </c>
+      <c r="Q69" s="43">
         <f t="shared" si="21"/>
-        <v>4.9030612244897691</v>
-      </c>
-      <c r="Q69" s="43">
-        <f t="shared" si="22"/>
         <v>4006.5885770975042</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:17" hidden="1">
       <c r="A70" s="41">
         <v>69</v>
       </c>
@@ -9866,51 +10021,51 @@
         <v>815</v>
       </c>
       <c r="E70">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="12"/>
+        <v>815</v>
+      </c>
+      <c r="G70">
         <f t="shared" si="13"/>
-        <v>80</v>
-      </c>
-      <c r="F70">
+        <v>6400</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="14"/>
-        <v>815</v>
-      </c>
-      <c r="G70">
+        <v>664225</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="15"/>
-        <v>6400</v>
-      </c>
-      <c r="H70">
+        <v>65200</v>
+      </c>
+      <c r="K70" s="43">
         <f t="shared" si="16"/>
-        <v>664225</v>
-      </c>
-      <c r="I70">
+        <v>817.95214325930033</v>
+      </c>
+      <c r="L70" s="43">
         <f t="shared" si="17"/>
-        <v>65200</v>
-      </c>
-      <c r="K70" s="43">
-        <f t="shared" si="12"/>
-        <v>817.95214325930033</v>
-      </c>
-      <c r="L70" s="43">
+        <v>1580.0813966564085</v>
+      </c>
+      <c r="M70" s="43">
         <f t="shared" si="18"/>
-        <v>1580.0813966564085</v>
-      </c>
-      <c r="M70" s="43">
+        <v>8.7151498234323661</v>
+      </c>
+      <c r="O70" s="43">
         <f t="shared" si="19"/>
-        <v>8.7151498234323661</v>
-      </c>
-      <c r="O70" s="43">
+        <v>-521.5790816326529</v>
+      </c>
+      <c r="P70" s="43">
         <f t="shared" si="20"/>
-        <v>-521.5790816326529</v>
-      </c>
-      <c r="P70" s="43">
+        <v>149.18877551020393</v>
+      </c>
+      <c r="Q70" s="43">
         <f t="shared" si="21"/>
-        <v>149.18877551020393</v>
-      </c>
-      <c r="Q70" s="43">
-        <f t="shared" si="22"/>
         <v>1823.4933390022684</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:17" hidden="1">
       <c r="A71" s="41">
         <v>70</v>
       </c>
@@ -9921,51 +10076,51 @@
         <v>838</v>
       </c>
       <c r="E71">
+        <f t="shared" si="11"/>
+        <v>79</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="12"/>
+        <v>838</v>
+      </c>
+      <c r="G71">
         <f t="shared" si="13"/>
-        <v>79</v>
-      </c>
-      <c r="F71">
+        <v>6241</v>
+      </c>
+      <c r="H71">
         <f t="shared" si="14"/>
-        <v>838</v>
-      </c>
-      <c r="G71">
+        <v>702244</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="15"/>
-        <v>6241</v>
-      </c>
-      <c r="H71">
+        <v>66202</v>
+      </c>
+      <c r="K71" s="43">
         <f t="shared" si="16"/>
-        <v>702244</v>
-      </c>
-      <c r="I71">
+        <v>821.20654868446491</v>
+      </c>
+      <c r="L71" s="43">
         <f t="shared" si="17"/>
-        <v>66202</v>
-      </c>
-      <c r="K71" s="43">
-        <f t="shared" si="12"/>
-        <v>821.20654868446491</v>
-      </c>
-      <c r="L71" s="43">
+        <v>1331.9457729278629</v>
+      </c>
+      <c r="M71" s="43">
         <f t="shared" si="18"/>
-        <v>1331.9457729278629</v>
-      </c>
-      <c r="M71" s="43">
+        <v>282.02000708724739</v>
+      </c>
+      <c r="O71" s="43">
         <f t="shared" si="19"/>
-        <v>282.02000708724739</v>
-      </c>
-      <c r="O71" s="43">
+        <v>-220.94812925170069</v>
+      </c>
+      <c r="P71" s="43">
         <f t="shared" si="20"/>
-        <v>-220.94812925170069</v>
-      </c>
-      <c r="P71" s="43">
+        <v>125.76020408163252</v>
+      </c>
+      <c r="Q71" s="43">
         <f t="shared" si="21"/>
-        <v>125.76020408163252</v>
-      </c>
-      <c r="Q71" s="43">
-        <f t="shared" si="22"/>
         <v>388.18381519274419</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:17" hidden="1">
       <c r="A72" s="41">
         <v>71</v>
       </c>
@@ -9976,51 +10131,51 @@
         <v>854</v>
       </c>
       <c r="E72">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="12"/>
+        <v>854</v>
+      </c>
+      <c r="G72">
         <f t="shared" si="13"/>
-        <v>71</v>
-      </c>
-      <c r="F72">
+        <v>5041</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="14"/>
-        <v>854</v>
-      </c>
-      <c r="G72">
+        <v>729316</v>
+      </c>
+      <c r="I72">
         <f t="shared" si="15"/>
-        <v>5041</v>
-      </c>
-      <c r="H72">
+        <v>60634</v>
+      </c>
+      <c r="K72" s="43">
         <f t="shared" si="16"/>
-        <v>729316</v>
-      </c>
-      <c r="I72">
+        <v>847.24179208578084</v>
+      </c>
+      <c r="L72" s="43">
         <f t="shared" si="17"/>
-        <v>60634</v>
-      </c>
-      <c r="K72" s="43">
-        <f t="shared" si="12"/>
-        <v>847.24179208578084</v>
-      </c>
-      <c r="L72" s="43">
+        <v>109.42391943603836</v>
+      </c>
+      <c r="M72" s="43">
         <f t="shared" si="18"/>
-        <v>109.42391943603836</v>
-      </c>
-      <c r="M72" s="43">
+        <v>45.673374211814433</v>
+      </c>
+      <c r="O72" s="43">
         <f t="shared" si="19"/>
-        <v>45.673374211814433</v>
-      </c>
-      <c r="O72" s="43">
+        <v>-11.900510204081645</v>
+      </c>
+      <c r="P72" s="43">
         <f t="shared" si="20"/>
-        <v>-11.900510204081645</v>
-      </c>
-      <c r="P72" s="43">
+        <v>10.331632653061185</v>
+      </c>
+      <c r="Q72" s="43">
         <f t="shared" si="21"/>
-        <v>10.331632653061185</v>
-      </c>
-      <c r="Q72" s="43">
-        <f t="shared" si="22"/>
         <v>13.707624716553369</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:17" hidden="1">
       <c r="A73" s="41">
         <v>72</v>
       </c>
@@ -10031,51 +10186,51 @@
         <v>1063</v>
       </c>
       <c r="E73">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="12"/>
+        <v>1063</v>
+      </c>
+      <c r="G73">
         <f t="shared" si="13"/>
-        <v>50</v>
-      </c>
-      <c r="F73">
+        <v>2500</v>
+      </c>
+      <c r="H73">
         <f t="shared" si="14"/>
-        <v>1063</v>
-      </c>
-      <c r="G73">
+        <v>1129969</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="15"/>
-        <v>2500</v>
-      </c>
-      <c r="H73">
+        <v>53150</v>
+      </c>
+      <c r="K73" s="43">
         <f t="shared" si="16"/>
-        <v>1129969</v>
-      </c>
-      <c r="I73">
+        <v>915.58430601423515</v>
+      </c>
+      <c r="L73" s="43">
         <f t="shared" si="17"/>
-        <v>53150</v>
-      </c>
-      <c r="K73" s="43">
-        <f t="shared" si="12"/>
-        <v>915.58430601423515</v>
-      </c>
-      <c r="L73" s="43">
+        <v>3350.3172488661044</v>
+      </c>
+      <c r="M73" s="43">
         <f t="shared" si="18"/>
-        <v>3350.3172488661044</v>
-      </c>
-      <c r="M73" s="43">
+        <v>21731.386833304667</v>
+      </c>
+      <c r="O73" s="43">
         <f t="shared" si="19"/>
-        <v>21731.386833304667</v>
-      </c>
-      <c r="O73" s="43">
+        <v>-3651.3647959183686</v>
+      </c>
+      <c r="P73" s="43">
         <f t="shared" si="20"/>
-        <v>-3651.3647959183686</v>
-      </c>
-      <c r="P73" s="43">
+        <v>316.33163265306143</v>
+      </c>
+      <c r="Q73" s="43">
         <f t="shared" si="21"/>
-        <v>316.33163265306143</v>
-      </c>
-      <c r="Q73" s="43">
-        <f t="shared" si="22"/>
         <v>42147.112386621309</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:17" hidden="1">
       <c r="A74" s="41">
         <v>73</v>
       </c>
@@ -10086,51 +10241,51 @@
         <v>1024</v>
       </c>
       <c r="E74">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="12"/>
+        <v>1024</v>
+      </c>
+      <c r="G74">
         <f t="shared" si="13"/>
-        <v>50</v>
-      </c>
-      <c r="F74">
+        <v>2500</v>
+      </c>
+      <c r="H74">
         <f t="shared" si="14"/>
-        <v>1024</v>
-      </c>
-      <c r="G74">
+        <v>1048576</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="15"/>
-        <v>2500</v>
-      </c>
-      <c r="H74">
+        <v>51200</v>
+      </c>
+      <c r="K74" s="43">
         <f t="shared" si="16"/>
-        <v>1048576</v>
-      </c>
-      <c r="I74">
+        <v>915.58430601423515</v>
+      </c>
+      <c r="L74" s="43">
         <f t="shared" si="17"/>
-        <v>51200</v>
-      </c>
-      <c r="K74" s="43">
-        <f t="shared" si="12"/>
-        <v>915.58430601423515</v>
-      </c>
-      <c r="L74" s="43">
+        <v>3350.3172488661044</v>
+      </c>
+      <c r="M74" s="43">
         <f t="shared" si="18"/>
-        <v>3350.3172488661044</v>
-      </c>
-      <c r="M74" s="43">
+        <v>11753.962702415009</v>
+      </c>
+      <c r="O74" s="43">
         <f t="shared" si="19"/>
-        <v>11753.962702415009</v>
-      </c>
-      <c r="O74" s="43">
+        <v>-2957.7219387755108</v>
+      </c>
+      <c r="P74" s="43">
         <f t="shared" si="20"/>
-        <v>-2957.7219387755108</v>
-      </c>
-      <c r="P74" s="43">
+        <v>316.33163265306143</v>
+      </c>
+      <c r="Q74" s="43">
         <f t="shared" si="21"/>
-        <v>316.33163265306143</v>
-      </c>
-      <c r="Q74" s="43">
-        <f t="shared" si="22"/>
         <v>27654.898100907027</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:17" hidden="1">
       <c r="A75" s="41">
         <v>74</v>
       </c>
@@ -10141,51 +10296,51 @@
         <v>780</v>
       </c>
       <c r="E75">
+        <f t="shared" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="12"/>
+        <v>780</v>
+      </c>
+      <c r="G75">
         <f t="shared" si="13"/>
-        <v>73</v>
-      </c>
-      <c r="F75">
+        <v>5329</v>
+      </c>
+      <c r="H75">
         <f t="shared" si="14"/>
-        <v>780</v>
-      </c>
-      <c r="G75">
+        <v>608400</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="15"/>
-        <v>5329</v>
-      </c>
-      <c r="H75">
+        <v>56940</v>
+      </c>
+      <c r="K75" s="43">
         <f t="shared" si="16"/>
-        <v>608400</v>
-      </c>
-      <c r="I75">
+        <v>840.7329812354518</v>
+      </c>
+      <c r="L75" s="43">
         <f t="shared" si="17"/>
-        <v>56940</v>
-      </c>
-      <c r="K75" s="43">
-        <f t="shared" si="12"/>
-        <v>840.7329812354518</v>
-      </c>
-      <c r="L75" s="43">
+        <v>287.96052675291548</v>
+      </c>
+      <c r="M75" s="43">
         <f t="shared" si="18"/>
-        <v>287.96052675291548</v>
-      </c>
-      <c r="M75" s="43">
+        <v>3688.4950097457408</v>
+      </c>
+      <c r="O75" s="43">
         <f t="shared" si="19"/>
-        <v>3688.4950097457408</v>
-      </c>
-      <c r="O75" s="43">
+        <v>-405.16241496598599</v>
+      </c>
+      <c r="P75" s="43">
         <f t="shared" si="20"/>
-        <v>-405.16241496598599</v>
-      </c>
-      <c r="P75" s="43">
+        <v>27.188775510204017</v>
+      </c>
+      <c r="Q75" s="43">
         <f t="shared" si="21"/>
-        <v>27.188775510204017</v>
-      </c>
-      <c r="Q75" s="43">
-        <f t="shared" si="22"/>
         <v>6037.6600056689358</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:17" hidden="1">
       <c r="A76" s="41">
         <v>75</v>
       </c>
@@ -10196,51 +10351,51 @@
         <v>813</v>
       </c>
       <c r="E76">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="12"/>
+        <v>813</v>
+      </c>
+      <c r="G76">
         <f t="shared" si="13"/>
-        <v>78</v>
-      </c>
-      <c r="F76">
+        <v>6084</v>
+      </c>
+      <c r="H76">
         <f t="shared" si="14"/>
-        <v>813</v>
-      </c>
-      <c r="G76">
+        <v>660969</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="15"/>
-        <v>6084</v>
-      </c>
-      <c r="H76">
+        <v>63414</v>
+      </c>
+      <c r="K76" s="43">
         <f t="shared" si="16"/>
-        <v>660969</v>
-      </c>
-      <c r="I76">
+        <v>824.46095410962937</v>
+      </c>
+      <c r="L76" s="43">
         <f t="shared" si="17"/>
-        <v>63414</v>
-      </c>
-      <c r="K76" s="43">
-        <f t="shared" si="12"/>
-        <v>824.46095410962937</v>
-      </c>
-      <c r="L76" s="43">
+        <v>1104.9924585420063</v>
+      </c>
+      <c r="M76" s="43">
         <f t="shared" si="18"/>
-        <v>1104.9924585420063</v>
-      </c>
-      <c r="M76" s="43">
+        <v>131.35346910303033</v>
+      </c>
+      <c r="O76" s="43">
         <f t="shared" si="19"/>
-        <v>131.35346910303033</v>
-      </c>
-      <c r="O76" s="43">
+        <v>-456.60289115646242</v>
+      </c>
+      <c r="P76" s="43">
         <f t="shared" si="20"/>
-        <v>-456.60289115646242</v>
-      </c>
-      <c r="P76" s="43">
+        <v>104.33163265306111</v>
+      </c>
+      <c r="Q76" s="43">
         <f t="shared" si="21"/>
-        <v>104.33163265306111</v>
-      </c>
-      <c r="Q76" s="43">
-        <f t="shared" si="22"/>
         <v>1998.3028628117922</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:17" hidden="1">
       <c r="A77" s="41">
         <v>76</v>
       </c>
@@ -10251,51 +10406,51 @@
         <v>850</v>
       </c>
       <c r="E77">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="12"/>
+        <v>850</v>
+      </c>
+      <c r="G77">
         <f t="shared" si="13"/>
-        <v>78</v>
-      </c>
-      <c r="F77">
+        <v>6084</v>
+      </c>
+      <c r="H77">
         <f t="shared" si="14"/>
-        <v>850</v>
-      </c>
-      <c r="G77">
+        <v>722500</v>
+      </c>
+      <c r="I77">
         <f t="shared" si="15"/>
-        <v>6084</v>
-      </c>
-      <c r="H77">
+        <v>66300</v>
+      </c>
+      <c r="K77" s="43">
         <f t="shared" si="16"/>
-        <v>722500</v>
-      </c>
-      <c r="I77">
+        <v>824.46095410962937</v>
+      </c>
+      <c r="L77" s="43">
         <f t="shared" si="17"/>
-        <v>66300</v>
-      </c>
-      <c r="K77" s="43">
-        <f t="shared" si="12"/>
-        <v>824.46095410962937</v>
-      </c>
-      <c r="L77" s="43">
+        <v>1104.9924585420063</v>
+      </c>
+      <c r="M77" s="43">
         <f t="shared" si="18"/>
-        <v>1104.9924585420063</v>
-      </c>
-      <c r="M77" s="43">
+        <v>652.24286499045695</v>
+      </c>
+      <c r="O77" s="43">
         <f t="shared" si="19"/>
-        <v>652.24286499045695</v>
-      </c>
-      <c r="O77" s="43">
+        <v>-78.674319727891216</v>
+      </c>
+      <c r="P77" s="43">
         <f t="shared" si="20"/>
-        <v>-78.674319727891216</v>
-      </c>
-      <c r="P77" s="43">
+        <v>104.33163265306111</v>
+      </c>
+      <c r="Q77" s="43">
         <f t="shared" si="21"/>
-        <v>104.33163265306111</v>
-      </c>
-      <c r="Q77" s="43">
-        <f t="shared" si="22"/>
         <v>59.326672335601074</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:17" hidden="1">
       <c r="A78" s="41">
         <v>77</v>
       </c>
@@ -10306,51 +10461,51 @@
         <v>902</v>
       </c>
       <c r="E78">
+        <f t="shared" si="11"/>
+        <v>63</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="12"/>
+        <v>902</v>
+      </c>
+      <c r="G78">
         <f t="shared" si="13"/>
-        <v>63</v>
-      </c>
-      <c r="F78">
+        <v>3969</v>
+      </c>
+      <c r="H78">
         <f t="shared" si="14"/>
-        <v>902</v>
-      </c>
-      <c r="G78">
+        <v>813604</v>
+      </c>
+      <c r="I78">
         <f t="shared" si="15"/>
-        <v>3969</v>
-      </c>
-      <c r="H78">
+        <v>56826</v>
+      </c>
+      <c r="K78" s="43">
         <f t="shared" si="16"/>
-        <v>813604</v>
-      </c>
-      <c r="I78">
+        <v>873.27703548709678</v>
+      </c>
+      <c r="L78" s="43">
         <f t="shared" si="17"/>
-        <v>56826</v>
-      </c>
-      <c r="K78" s="43">
-        <f t="shared" si="12"/>
-        <v>873.27703548709678</v>
-      </c>
-      <c r="L78" s="43">
+        <v>242.56986387574403</v>
+      </c>
+      <c r="M78" s="43">
         <f t="shared" si="18"/>
-        <v>242.56986387574403</v>
-      </c>
-      <c r="M78" s="43">
+        <v>825.0086904094976</v>
+      </c>
+      <c r="O78" s="43">
         <f t="shared" si="19"/>
-        <v>825.0086904094976</v>
-      </c>
-      <c r="O78" s="43">
+        <v>-211.99574829931996</v>
+      </c>
+      <c r="P78" s="43">
         <f t="shared" si="20"/>
-        <v>-211.99574829931996</v>
-      </c>
-      <c r="P78" s="43">
+        <v>22.903061224489853</v>
+      </c>
+      <c r="Q78" s="43">
         <f t="shared" si="21"/>
-        <v>22.903061224489853</v>
-      </c>
-      <c r="Q78" s="43">
-        <f t="shared" si="22"/>
         <v>1962.2790532879808</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:17" hidden="1">
       <c r="A79" s="41">
         <v>78</v>
       </c>
@@ -10361,51 +10516,51 @@
         <v>906</v>
       </c>
       <c r="E79">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="12"/>
+        <v>906</v>
+      </c>
+      <c r="G79">
         <f t="shared" si="13"/>
-        <v>60</v>
-      </c>
-      <c r="F79">
+        <v>3600</v>
+      </c>
+      <c r="H79">
         <f t="shared" si="14"/>
-        <v>906</v>
-      </c>
-      <c r="G79">
+        <v>820836</v>
+      </c>
+      <c r="I79">
         <f t="shared" si="15"/>
-        <v>3600</v>
-      </c>
-      <c r="H79">
+        <v>54360</v>
+      </c>
+      <c r="K79" s="43">
         <f t="shared" si="16"/>
-        <v>820836</v>
-      </c>
-      <c r="I79">
+        <v>883.04025176259029</v>
+      </c>
+      <c r="L79" s="43">
         <f t="shared" si="17"/>
-        <v>54360</v>
-      </c>
-      <c r="K79" s="43">
-        <f t="shared" si="12"/>
-        <v>883.04025176259029</v>
-      </c>
-      <c r="L79" s="43">
+        <v>642.00769719485777</v>
+      </c>
+      <c r="M79" s="43">
         <f t="shared" si="18"/>
-        <v>642.00769719485777</v>
-      </c>
-      <c r="M79" s="43">
+        <v>527.15003912523844</v>
+      </c>
+      <c r="O79" s="43">
         <f t="shared" si="19"/>
-        <v>527.15003912523844</v>
-      </c>
-      <c r="O79" s="43">
+        <v>-376.03146258503421</v>
+      </c>
+      <c r="P79" s="43">
         <f t="shared" si="20"/>
-        <v>-376.03146258503421</v>
-      </c>
-      <c r="P79" s="43">
+        <v>60.617346938775604</v>
+      </c>
+      <c r="Q79" s="43">
         <f t="shared" si="21"/>
-        <v>60.617346938775604</v>
-      </c>
-      <c r="Q79" s="43">
-        <f t="shared" si="22"/>
         <v>2332.6600056689331</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:17" hidden="1">
       <c r="A80" s="41">
         <v>79</v>
       </c>
@@ -10416,51 +10571,51 @@
         <v>865</v>
       </c>
       <c r="E80">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="12"/>
+        <v>865</v>
+      </c>
+      <c r="G80">
         <f t="shared" si="13"/>
-        <v>78</v>
-      </c>
-      <c r="F80">
+        <v>6084</v>
+      </c>
+      <c r="H80">
         <f t="shared" si="14"/>
-        <v>865</v>
-      </c>
-      <c r="G80">
+        <v>748225</v>
+      </c>
+      <c r="I80">
         <f t="shared" si="15"/>
-        <v>6084</v>
-      </c>
-      <c r="H80">
+        <v>67470</v>
+      </c>
+      <c r="K80" s="43">
         <f t="shared" si="16"/>
-        <v>748225</v>
-      </c>
-      <c r="I80">
+        <v>824.46095410962937</v>
+      </c>
+      <c r="L80" s="43">
         <f t="shared" si="17"/>
-        <v>67470</v>
-      </c>
-      <c r="K80" s="43">
-        <f t="shared" si="12"/>
-        <v>824.46095410962937</v>
-      </c>
-      <c r="L80" s="43">
+        <v>1104.9924585420063</v>
+      </c>
+      <c r="M80" s="43">
         <f t="shared" si="18"/>
-        <v>1104.9924585420063</v>
-      </c>
-      <c r="M80" s="43">
+        <v>1643.414241701576</v>
+      </c>
+      <c r="O80" s="43">
         <f t="shared" si="19"/>
-        <v>1643.414241701576</v>
-      </c>
-      <c r="O80" s="43">
+        <v>74.539965986394407</v>
+      </c>
+      <c r="P80" s="43">
         <f t="shared" si="20"/>
-        <v>74.539965986394407</v>
-      </c>
-      <c r="P80" s="43">
+        <v>104.33163265306111</v>
+      </c>
+      <c r="Q80" s="43">
         <f t="shared" si="21"/>
-        <v>104.33163265306111</v>
-      </c>
-      <c r="Q80" s="43">
-        <f t="shared" si="22"/>
         <v>53.255243764172178</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:17" hidden="1">
       <c r="A81" s="41">
         <v>80</v>
       </c>
@@ -10471,51 +10626,51 @@
         <v>886</v>
       </c>
       <c r="E81">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="12"/>
+        <v>886</v>
+      </c>
+      <c r="G81">
         <f t="shared" si="13"/>
-        <v>78</v>
-      </c>
-      <c r="F81">
+        <v>6084</v>
+      </c>
+      <c r="H81">
         <f t="shared" si="14"/>
-        <v>886</v>
-      </c>
-      <c r="G81">
+        <v>784996</v>
+      </c>
+      <c r="I81">
         <f t="shared" si="15"/>
-        <v>6084</v>
-      </c>
-      <c r="H81">
+        <v>69108</v>
+      </c>
+      <c r="K81" s="43">
         <f t="shared" si="16"/>
-        <v>784996</v>
-      </c>
-      <c r="I81">
+        <v>824.46095410962937</v>
+      </c>
+      <c r="L81" s="43">
         <f t="shared" si="17"/>
-        <v>69108</v>
-      </c>
-      <c r="K81" s="43">
-        <f t="shared" si="12"/>
-        <v>824.46095410962937</v>
-      </c>
-      <c r="L81" s="43">
+        <v>1104.9924585420063</v>
+      </c>
+      <c r="M81" s="43">
         <f t="shared" si="18"/>
-        <v>1104.9924585420063</v>
-      </c>
-      <c r="M81" s="43">
+        <v>3787.0541690971422</v>
+      </c>
+      <c r="O81" s="43">
         <f t="shared" si="19"/>
-        <v>3787.0541690971422</v>
-      </c>
-      <c r="O81" s="43">
+        <v>289.03996598639429</v>
+      </c>
+      <c r="P81" s="43">
         <f t="shared" si="20"/>
-        <v>289.03996598639429</v>
-      </c>
-      <c r="P81" s="43">
+        <v>104.33163265306111</v>
+      </c>
+      <c r="Q81" s="43">
         <f t="shared" si="21"/>
-        <v>104.33163265306111</v>
-      </c>
-      <c r="Q81" s="43">
-        <f t="shared" si="22"/>
         <v>800.75524376417172</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:17">
       <c r="A82" s="41">
         <v>81</v>
       </c>
@@ -10526,51 +10681,51 @@
         <v>881</v>
       </c>
       <c r="E82">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="12"/>
+        <v>881</v>
+      </c>
+      <c r="G82">
         <f t="shared" si="13"/>
-        <v>78</v>
-      </c>
-      <c r="F82">
+        <v>6084</v>
+      </c>
+      <c r="H82">
         <f t="shared" si="14"/>
-        <v>881</v>
-      </c>
-      <c r="G82">
+        <v>776161</v>
+      </c>
+      <c r="I82">
         <f t="shared" si="15"/>
-        <v>6084</v>
-      </c>
-      <c r="H82">
+        <v>68718</v>
+      </c>
+      <c r="K82" s="43">
         <f t="shared" si="16"/>
-        <v>776161</v>
-      </c>
-      <c r="I82">
+        <v>824.46095410962937</v>
+      </c>
+      <c r="L82" s="43">
         <f t="shared" si="17"/>
-        <v>68718</v>
-      </c>
-      <c r="K82" s="43">
-        <f t="shared" si="12"/>
-        <v>824.46095410962937</v>
-      </c>
-      <c r="L82" s="43">
+        <v>1104.9924585420063</v>
+      </c>
+      <c r="M82" s="43">
         <f t="shared" si="18"/>
-        <v>1104.9924585420063</v>
-      </c>
-      <c r="M82" s="43">
+        <v>3196.6637101934361</v>
+      </c>
+      <c r="O82" s="43">
         <f t="shared" si="19"/>
-        <v>3196.6637101934361</v>
-      </c>
-      <c r="O82" s="43">
+        <v>237.96853741496574</v>
+      </c>
+      <c r="P82" s="43">
         <f t="shared" si="20"/>
-        <v>237.96853741496574</v>
-      </c>
-      <c r="P82" s="43">
+        <v>104.33163265306111</v>
+      </c>
+      <c r="Q82" s="43">
         <f t="shared" si="21"/>
-        <v>104.33163265306111</v>
-      </c>
-      <c r="Q82" s="43">
-        <f t="shared" si="22"/>
         <v>542.77905328798136</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:17">
       <c r="A83" s="41">
         <v>82</v>
       </c>
@@ -10581,51 +10736,51 @@
         <v>825</v>
       </c>
       <c r="E83">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="12"/>
+        <v>825</v>
+      </c>
+      <c r="G83">
         <f t="shared" si="13"/>
-        <v>50</v>
-      </c>
-      <c r="F83">
+        <v>2500</v>
+      </c>
+      <c r="H83">
         <f t="shared" si="14"/>
-        <v>825</v>
-      </c>
-      <c r="G83">
+        <v>680625</v>
+      </c>
+      <c r="I83">
         <f t="shared" si="15"/>
-        <v>2500</v>
-      </c>
-      <c r="H83">
+        <v>41250</v>
+      </c>
+      <c r="K83" s="43">
         <f t="shared" si="16"/>
-        <v>680625</v>
-      </c>
-      <c r="I83">
+        <v>915.58430601423515</v>
+      </c>
+      <c r="L83" s="43">
         <f t="shared" si="17"/>
-        <v>41250</v>
-      </c>
-      <c r="K83" s="43">
-        <f t="shared" si="12"/>
-        <v>915.58430601423515</v>
-      </c>
-      <c r="L83" s="43">
+        <v>3350.3172488661044</v>
+      </c>
+      <c r="M83" s="43">
         <f t="shared" si="18"/>
-        <v>3350.3172488661044</v>
-      </c>
-      <c r="M83" s="43">
+        <v>8205.5164960805996</v>
+      </c>
+      <c r="O83" s="43">
         <f t="shared" si="19"/>
-        <v>8205.5164960805996</v>
-      </c>
-      <c r="O83" s="43">
+        <v>581.63520408163299</v>
+      </c>
+      <c r="P83" s="43">
         <f t="shared" si="20"/>
-        <v>581.63520408163299</v>
-      </c>
-      <c r="P83" s="43">
+        <v>316.33163265306143</v>
+      </c>
+      <c r="Q83" s="43">
         <f t="shared" si="21"/>
-        <v>316.33163265306143</v>
-      </c>
-      <c r="Q83" s="43">
-        <f t="shared" si="22"/>
         <v>1069.4457199546491</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:17">
       <c r="A84" s="41">
         <v>83</v>
       </c>
@@ -10636,51 +10791,51 @@
         <v>821</v>
       </c>
       <c r="E84">
+        <f t="shared" si="11"/>
+        <v>61</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="12"/>
+        <v>821</v>
+      </c>
+      <c r="G84">
         <f t="shared" si="13"/>
-        <v>61</v>
-      </c>
-      <c r="F84">
+        <v>3721</v>
+      </c>
+      <c r="H84">
         <f t="shared" si="14"/>
-        <v>821</v>
-      </c>
-      <c r="G84">
+        <v>674041</v>
+      </c>
+      <c r="I84">
         <f t="shared" si="15"/>
-        <v>3721</v>
-      </c>
-      <c r="H84">
+        <v>50081</v>
+      </c>
+      <c r="K84" s="43">
         <f t="shared" si="16"/>
-        <v>674041</v>
-      </c>
-      <c r="I84">
+        <v>879.78584633742571</v>
+      </c>
+      <c r="L84" s="43">
         <f t="shared" si="17"/>
-        <v>50081</v>
-      </c>
-      <c r="K84" s="43">
-        <f t="shared" si="12"/>
-        <v>879.78584633742571</v>
-      </c>
-      <c r="L84" s="43">
+        <v>487.67944341246954</v>
+      </c>
+      <c r="M84" s="43">
         <f t="shared" si="18"/>
-        <v>487.67944341246954</v>
-      </c>
-      <c r="M84" s="43">
+        <v>3455.7757296074278</v>
+      </c>
+      <c r="O84" s="43">
         <f t="shared" si="19"/>
-        <v>3455.7757296074278</v>
-      </c>
-      <c r="O84" s="43">
+        <v>249.05187074829962</v>
+      </c>
+      <c r="P84" s="43">
         <f t="shared" si="20"/>
-        <v>249.05187074829962</v>
-      </c>
-      <c r="P84" s="43">
+        <v>46.045918367347021</v>
+      </c>
+      <c r="Q84" s="43">
         <f t="shared" si="21"/>
-        <v>46.045918367347021</v>
-      </c>
-      <c r="Q84" s="43">
-        <f t="shared" si="22"/>
         <v>1347.0647675736968</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:17">
       <c r="A85" s="42">
         <v>84</v>
       </c>
@@ -10691,51 +10846,51 @@
         <v>832</v>
       </c>
       <c r="E85">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="12"/>
+        <v>832</v>
+      </c>
+      <c r="G85">
         <f t="shared" si="13"/>
-        <v>62</v>
-      </c>
-      <c r="F85">
+        <v>3844</v>
+      </c>
+      <c r="H85">
         <f t="shared" si="14"/>
-        <v>832</v>
-      </c>
-      <c r="G85">
+        <v>692224</v>
+      </c>
+      <c r="I85">
         <f t="shared" si="15"/>
-        <v>3844</v>
-      </c>
-      <c r="H85">
+        <v>51584</v>
+      </c>
+      <c r="K85" s="43">
         <f t="shared" si="16"/>
-        <v>692224</v>
-      </c>
-      <c r="I85">
+        <v>876.53144091226125</v>
+      </c>
+      <c r="L85" s="43">
         <f t="shared" si="17"/>
-        <v>51584</v>
-      </c>
-      <c r="K85" s="43">
-        <f t="shared" si="12"/>
-        <v>876.53144091226125</v>
-      </c>
-      <c r="L85" s="43">
+        <v>354.53349897276689</v>
+      </c>
+      <c r="M85" s="43">
         <f t="shared" si="18"/>
-        <v>354.53349897276689</v>
-      </c>
-      <c r="M85" s="43">
+        <v>1983.0492297222147</v>
+      </c>
+      <c r="O85" s="43">
         <f t="shared" si="19"/>
-        <v>1983.0492297222147</v>
-      </c>
-      <c r="O85" s="43">
+        <v>148.70663265306143</v>
+      </c>
+      <c r="P85" s="43">
         <f t="shared" si="20"/>
-        <v>148.70663265306143</v>
-      </c>
-      <c r="P85" s="43">
+        <v>33.474489795918437</v>
+      </c>
+      <c r="Q85" s="43">
         <f t="shared" si="21"/>
-        <v>33.474489795918437</v>
-      </c>
-      <c r="Q85" s="43">
-        <f t="shared" si="22"/>
         <v>660.61238662131575</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>67</v>
       </c>
@@ -10755,15 +10910,15 @@
         <v>72047</v>
       </c>
       <c r="G87">
-        <f t="shared" ref="G87:I87" si="23">SUM(G2:G85)</f>
+        <f t="shared" ref="G87:I87" si="22">SUM(G2:G85)</f>
         <v>402972</v>
       </c>
       <c r="H87">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>62352661</v>
       </c>
       <c r="I87">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>4828432</v>
       </c>
       <c r="L87" s="43">
@@ -10775,19 +10930,19 @@
         <v>377726.41708893195</v>
       </c>
       <c r="O87" s="43">
-        <f t="shared" ref="O87:Q87" si="24">SUM(O2:O85)</f>
+        <f t="shared" ref="O87:Q87" si="23">SUM(O2:O85)</f>
         <v>-55325.35714285713</v>
       </c>
       <c r="P87" s="43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>17000.142857142855</v>
       </c>
       <c r="Q87" s="43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>557777.55952380947</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:17">
       <c r="B88" s="43"/>
       <c r="C88" s="43"/>
       <c r="D88" t="s">
@@ -10802,7 +10957,7 @@
         <v>857.70238095238096</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:17">
       <c r="L89" t="s">
         <v>60</v>
       </c>
@@ -10811,14 +10966,14 @@
         <v>0.32280097928032847</v>
       </c>
       <c r="O89" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="P89" s="49">
         <f>O87/(SQRT(P87)*SQRT(Q87))</f>
         <v>-0.56815577026052344</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:17">
       <c r="H90" s="47" t="s">
         <v>45</v>
       </c>
@@ -10826,8 +10981,12 @@
         <f>(B87*I87-E87*F87)/(B87*G87-E87^2)</f>
         <v>-3.2544054251644945</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="P90">
+        <f>CORREL(E2:E85,F2:F85)</f>
+        <v>-0.56815577026052333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="H91" s="47" t="s">
         <v>46</v>
       </c>
@@ -10845,27 +11004,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.5" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="11" customWidth="1"/>
     <col min="3" max="3" width="13" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="11" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="11" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="11" customWidth="1"/>
     <col min="9" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -10876,7 +11035,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>15</v>
@@ -10894,7 +11053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -10917,7 +11076,7 @@
         <v>11.184799999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -10940,7 +11099,7 @@
         <v>8.0907999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -10963,7 +11122,7 @@
         <v>10.6457</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -10986,7 +11145,7 @@
         <v>14.0162</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -11009,7 +11168,7 @@
         <v>16.863600000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -11032,7 +11191,7 @@
         <v>15.2195</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -11055,7 +11214,7 @@
         <v>16.822200000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -11078,7 +11237,7 @@
         <v>20.171800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
@@ -11101,7 +11260,7 @@
         <v>14.241</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -11124,7 +11283,7 @@
         <v>18.288599999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -11147,7 +11306,7 @@
         <v>13.083</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7">
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
@@ -11170,12 +11329,12 @@
         <v>10.625999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7">
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -11200,7 +11359,7 @@
         <v>169.25319999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7">
       <c r="A18" s="10" t="s">
         <v>23</v>
       </c>
@@ -11213,10 +11372,10 @@
         <v>2.8458333333333337</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7">
       <c r="A20" s="13" t="s">
         <v>22</v>
       </c>
@@ -11224,7 +11383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7">
       <c r="A21" s="13" t="s">
         <v>21</v>
       </c>
@@ -11233,7 +11392,7 @@
         <v>0.49883012129793997</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7">
       <c r="A22" s="10" t="s">
         <v>24</v>
       </c>
@@ -11242,20 +11401,20 @@
         <v>0.40904819079289689</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7">
       <c r="A23" s="13"/>
       <c r="B23" s="17"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7">
       <c r="A24" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="17">
         <f>(F17-B22*C17-B21*G17)/(B20-2)</f>
         <v>2.9910999835806251E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7">
       <c r="A25" s="13" t="s">
         <v>25</v>
       </c>
@@ -11264,7 +11423,7 @@
         <v>0.17294796857958827</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7">
       <c r="A28" s="11" t="s">
         <v>38</v>
       </c>
@@ -11272,7 +11431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7">
       <c r="A29" s="11" t="s">
         <v>39</v>
       </c>
@@ -11281,7 +11440,7 @@
         <v>3.9008590398784766</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7">
       <c r="A37" s="16" t="s">
         <v>27</v>
       </c>
@@ -11292,12 +11451,12 @@
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7">
       <c r="B39" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7">
       <c r="A40" s="8" t="s">
         <v>3</v>
       </c>
@@ -11306,7 +11465,7 @@
         <v>0.140625</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7">
       <c r="A41" s="8" t="s">
         <v>4</v>
       </c>
@@ -11315,7 +11474,7 @@
         <v>1.7030249999999993</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7">
       <c r="A42" s="8" t="s">
         <v>5</v>
       </c>
@@ -11324,7 +11483,7 @@
         <v>0.33062500000000022</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7">
       <c r="A43" s="8" t="s">
         <v>6</v>
       </c>
@@ -11333,7 +11492,7 @@
         <v>3.0624999999999937E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7">
       <c r="A44" s="8" t="s">
         <v>7</v>
       </c>
@@ -11342,7 +11501,7 @@
         <v>0.57002499999999989</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7">
       <c r="A45" s="8" t="s">
         <v>8</v>
       </c>
@@ -11351,7 +11510,7 @@
         <v>1.102500000000009E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7">
       <c r="A46" s="8" t="s">
         <v>9</v>
       </c>
@@ -11360,7 +11519,7 @@
         <v>0.1640250000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7">
       <c r="A47" s="8" t="s">
         <v>10</v>
       </c>
@@ -11369,7 +11528,7 @@
         <v>0.89302500000000051</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7">
       <c r="A48" s="8" t="s">
         <v>11</v>
       </c>
@@ -11378,7 +11537,7 @@
         <v>3.4224999999999853E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7">
       <c r="A49" s="8" t="s">
         <v>12</v>
       </c>
@@ -11387,7 +11546,7 @@
         <v>0.52562500000000079</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7">
       <c r="A50" s="8" t="s">
         <v>13</v>
       </c>
@@ -11396,7 +11555,7 @@
         <v>2.2500000000001704E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7">
       <c r="A51" s="9" t="s">
         <v>14</v>
       </c>
@@ -11405,10 +11564,10 @@
         <v>0.46922499999999945</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7">
       <c r="B52" s="17"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7">
       <c r="A53" s="11" t="s">
         <v>17</v>
       </c>
@@ -11417,10 +11576,10 @@
         <v>4.872300000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7">
       <c r="B54" s="17"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7">
       <c r="A55" s="11" t="s">
         <v>29</v>
       </c>
@@ -11429,7 +11588,7 @@
         <v>7.8351705570327251E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7">
       <c r="A57" s="11" t="s">
         <v>30</v>
       </c>
@@ -11437,7 +11596,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7">
       <c r="A58" s="11" t="s">
         <v>31</v>
       </c>
@@ -11446,7 +11605,7 @@
         <v>3.1692726726169518</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7">
       <c r="A60" s="11" t="s">
         <v>32</v>
       </c>
@@ -11455,7 +11614,7 @@
         <v>0.2505122019809724</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7">
       <c r="A61" s="11" t="s">
         <v>33</v>
       </c>
@@ -11464,7 +11623,7 @@
         <v>0.74714804061490758</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7">
       <c r="A64" s="16" t="s">
         <v>34</v>
       </c>
@@ -11475,12 +11634,12 @@
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2">
       <c r="A66" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2">
       <c r="A68" s="11" t="s">
         <v>36</v>
       </c>
@@ -11489,7 +11648,7 @@
         <v>6.3665508959495201</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2">
       <c r="A69" s="11" t="s">
         <v>37</v>
       </c>
@@ -11498,7 +11657,7 @@
         <v>8.1758991767012589E-5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7">
       <c r="A81" s="16" t="s">
         <v>40</v>
       </c>
@@ -11509,12 +11668,12 @@
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7">
       <c r="A83" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7">
       <c r="A85" s="11" t="s">
         <v>45</v>
       </c>
@@ -11523,7 +11682,7 @@
         <v>0.49883012129793997</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7">
       <c r="A86" s="11" t="s">
         <v>46</v>
       </c>
@@ -11532,8 +11691,8 @@
         <v>0.40904819079289689</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="15" thickBot="1"/>
+    <row r="88" spans="1:7">
       <c r="A88" s="60"/>
       <c r="B88" s="61" t="s">
         <v>44</v>
@@ -11551,7 +11710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7">
       <c r="A89" s="54" t="s">
         <v>3</v>
       </c>
@@ -11576,7 +11735,7 @@
         <v>3.1959441515828406E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7">
       <c r="A90" s="54" t="s">
         <v>4</v>
       </c>
@@ -11601,7 +11760,7 @@
         <v>4.2432163378516964E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7">
       <c r="A91" s="54" t="s">
         <v>5</v>
       </c>
@@ -11626,7 +11785,7 @@
         <v>7.9220704546523711E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7">
       <c r="A92" s="54" t="s">
         <v>6</v>
       </c>
@@ -11651,7 +11810,7 @@
         <v>2.6610941625847085E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7">
       <c r="A93" s="54" t="s">
         <v>7</v>
       </c>
@@ -11676,7 +11835,7 @@
         <v>5.4033037327188484E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7">
       <c r="A94" s="54" t="s">
         <v>8</v>
       </c>
@@ -11701,7 +11860,7 @@
         <v>2.3040053503431534E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7">
       <c r="A95" s="54" t="s">
         <v>9</v>
       </c>
@@ -11726,7 +11885,7 @@
         <v>1.7461103161954268E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7">
       <c r="A96" s="54" t="s">
         <v>10</v>
       </c>
@@ -11751,7 +11910,7 @@
         <v>2.0383901675382843E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6">
       <c r="A97" s="54" t="s">
         <v>11</v>
       </c>
@@ -11776,7 +11935,7 @@
         <v>7.6424734702198668E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6">
       <c r="A98" s="54" t="s">
         <v>12</v>
       </c>
@@ -11801,7 +11960,7 @@
         <v>2.7578072360853628E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6">
       <c r="A99" s="54" t="s">
         <v>13</v>
       </c>
@@ -11826,7 +11985,7 @@
         <v>3.3604677086188667E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6">
       <c r="A100" s="54" t="s">
         <v>14</v>
       </c>
@@ -11851,7 +12010,7 @@
         <v>6.6901373145505504E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6">
       <c r="A101" s="65" t="s">
         <v>47</v>
       </c>
@@ -11864,7 +12023,7 @@
       <c r="E101" s="64"/>
       <c r="F101" s="66"/>
     </row>
-    <row r="102" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:6" ht="15" thickBot="1">
       <c r="A102" s="67" t="s">
         <v>49</v>
       </c>
@@ -11880,8 +12039,8 @@
         <v>0.29910999835806446</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" ht="15" thickBot="1"/>
+    <row r="104" spans="1:6">
       <c r="A104" s="60" t="s">
         <v>51</v>
       </c>
@@ -11901,7 +12060,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6">
       <c r="A105" s="69" t="s">
         <v>52</v>
       </c>
@@ -11925,7 +12084,7 @@
         <v>8.1758991767014961E-5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6">
       <c r="A106" s="69" t="s">
         <v>53</v>
       </c>
@@ -11944,7 +12103,7 @@
       <c r="E106" s="30"/>
       <c r="F106" s="56"/>
     </row>
-    <row r="107" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:6" ht="15" thickBot="1">
       <c r="A107" s="70" t="s">
         <v>54</v>
       </c>
@@ -11960,7 +12119,7 @@
       <c r="E107" s="58"/>
       <c r="F107" s="59"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6">
       <c r="A110" s="79" t="s">
         <v>60</v>
       </c>
@@ -11969,9 +12128,9 @@
         <v>0.8021093963305076</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8">
       <c r="A119" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -11980,8 +12139,8 @@
       <c r="F119" s="16"/>
       <c r="G119" s="16"/>
     </row>
-    <row r="120" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" ht="15" thickBot="1"/>
+    <row r="121" spans="1:8">
       <c r="A121" s="60"/>
       <c r="B121" s="61" t="s">
         <v>44</v>
@@ -11990,22 +12149,22 @@
         <v>42</v>
       </c>
       <c r="D121" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E121" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="E121" s="61" t="s">
+      <c r="F121" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="G121" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="F121" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="G121" s="61" t="s">
+      <c r="H121" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="H121" s="62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="54" t="s">
         <v>3</v>
       </c>
@@ -12036,7 +12195,7 @@
         <v>0.13383402777777803</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8">
       <c r="A123" s="54" t="s">
         <v>4</v>
       </c>
@@ -12067,7 +12226,7 @@
         <v>0.34320069444444506</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8">
       <c r="A124" s="54" t="s">
         <v>5</v>
       </c>
@@ -12098,7 +12257,7 @@
         <v>0.14125069444444455</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8">
       <c r="A125" s="54" t="s">
         <v>6</v>
       </c>
@@ -12129,7 +12288,7 @@
         <v>5.7506944444444914E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8">
       <c r="A126" s="54" t="s">
         <v>7</v>
       </c>
@@ -12160,7 +12319,7 @@
         <v>2.0784027777777745E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8">
       <c r="A127" s="54" t="s">
         <v>8</v>
       </c>
@@ -12191,7 +12350,7 @@
         <v>4.168402777777757E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8">
       <c r="A128" s="54" t="s">
         <v>9</v>
       </c>
@@ -12222,7 +12381,7 @@
         <v>0.111667361111111</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8">
       <c r="A129" s="54" t="s">
         <v>10</v>
       </c>
@@ -12253,7 +12412,7 @@
         <v>0.37720069444444398</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8">
       <c r="A130" s="54" t="s">
         <v>11</v>
       </c>
@@ -12284,7 +12443,7 @@
         <v>3.3917361111110919E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8">
       <c r="A131" s="54" t="s">
         <v>12</v>
       </c>
@@ -12315,7 +12474,7 @@
         <v>0.17153402777777732</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8">
       <c r="A132" s="54" t="s">
         <v>13</v>
       </c>
@@ -12346,7 +12505,7 @@
         <v>3.091736111111125E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8">
       <c r="A133" s="54" t="s">
         <v>14</v>
       </c>
@@ -12377,7 +12536,7 @@
         <v>9.9750694444444774E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8">
       <c r="A134" s="65" t="s">
         <v>47</v>
       </c>
@@ -12395,7 +12554,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="66"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8">
       <c r="A135" s="73" t="s">
         <v>49</v>
       </c>
@@ -12416,9 +12575,9 @@
         <v>1.5114916666666669</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:8" ht="15" thickBot="1">
       <c r="A136" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B136" s="75"/>
       <c r="C136" s="75"/>
@@ -12434,18 +12593,18 @@
         <v>1.2294273734819259</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8">
       <c r="A138" s="79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B138" s="80">
         <f>F135/(G136*H136)</f>
         <v>0.89560560311473802</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8">
       <c r="A139" s="79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B139" s="80">
         <f>B138^2</f>
@@ -12460,27 +12619,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.58203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="11" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="11" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11" style="11" customWidth="1"/>
     <col min="9" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -12492,7 +12651,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>15</v>
@@ -12501,19 +12660,19 @@
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="G3" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="H3" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -12540,7 +12699,7 @@
         <v>0.140625</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -12567,7 +12726,7 @@
         <v>1.7030249999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -12594,7 +12753,7 @@
         <v>0.33062500000000022</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -12621,7 +12780,7 @@
         <v>3.0624999999999937E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -12648,7 +12807,7 @@
         <v>0.57002499999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -12675,7 +12834,7 @@
         <v>1.102500000000009E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -12702,7 +12861,7 @@
         <v>0.1640250000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -12729,7 +12888,7 @@
         <v>0.89302500000000051</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
@@ -12756,7 +12915,7 @@
         <v>3.4224999999999853E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -12783,7 +12942,7 @@
         <v>0.52562500000000079</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -12810,7 +12969,7 @@
         <v>2.2500000000001704E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
@@ -12837,10 +12996,10 @@
         <v>0.46922499999999945</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="E16" s="17"/>
       <c r="F16" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="17">
         <f t="shared" ref="G16:H16" si="4">SUM(G4:G15)</f>
@@ -12851,7 +13010,7 @@
         <v>4.872300000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3">
       <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
@@ -12864,10 +13023,10 @@
         <v>2.8458333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3">
       <c r="A19" s="13" t="s">
         <v>21</v>
       </c>
@@ -12876,7 +13035,7 @@
         <v>0.49883012129794962</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3">
       <c r="A20" s="10" t="s">
         <v>24</v>
       </c>
@@ -12885,7 +13044,7 @@
         <v>0.40904819079284982</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3">
       <c r="A21" s="13"/>
       <c r="B21" s="17"/>
     </row>
@@ -12897,25 +13056,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.58203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="11" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="11" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" style="11" customWidth="1"/>
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -12926,7 +13085,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>15</v>
@@ -12938,7 +13097,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -12952,7 +13111,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -12966,7 +13125,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -12980,7 +13139,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -12994,7 +13153,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -13008,7 +13167,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -13022,7 +13181,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -13036,7 +13195,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -13050,7 +13209,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
@@ -13064,7 +13223,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -13078,7 +13237,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -13092,7 +13251,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7">
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
@@ -13106,12 +13265,12 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7">
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -13121,17 +13280,17 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7">
       <c r="A18" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7">
       <c r="A19" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7">
       <c r="A37" s="16" t="s">
         <v>27</v>
       </c>
@@ -13142,91 +13301,91 @@
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7">
       <c r="A40" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="17"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7">
       <c r="A41" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="17"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7">
       <c r="A42" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="17"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7">
       <c r="A43" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="17"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7">
       <c r="A44" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="17"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7">
       <c r="A45" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="17"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7">
       <c r="A46" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="17"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7">
       <c r="A47" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B47" s="17"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7">
       <c r="A48" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="17"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7">
       <c r="A49" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="17"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7">
       <c r="A50" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="17"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7">
       <c r="A51" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="17"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7">
       <c r="B52" s="17"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7">
       <c r="A53" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B53" s="17"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7">
       <c r="B54" s="17"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7">
       <c r="A64" s="16" t="s">
         <v>34</v>
       </c>
@@ -13237,12 +13396,12 @@
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1">
       <c r="A66" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7">
       <c r="A81" s="16" t="s">
         <v>40</v>
       </c>
@@ -13253,24 +13412,24 @@
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7">
       <c r="A83" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7">
       <c r="A85" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B85" s="17"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7">
       <c r="A86" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B86" s="17"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7">
       <c r="B88" s="11" t="s">
         <v>44</v>
       </c>
@@ -13287,7 +13446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7">
       <c r="A89" s="8" t="s">
         <v>3</v>
       </c>
@@ -13297,7 +13456,7 @@
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7">
       <c r="A90" s="8" t="s">
         <v>4</v>
       </c>
@@ -13307,7 +13466,7 @@
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7">
       <c r="A91" s="8" t="s">
         <v>5</v>
       </c>
@@ -13317,7 +13476,7 @@
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7">
       <c r="A92" s="8" t="s">
         <v>6</v>
       </c>
@@ -13327,7 +13486,7 @@
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7">
       <c r="A93" s="8" t="s">
         <v>7</v>
       </c>
@@ -13337,7 +13496,7 @@
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7">
       <c r="A94" s="8" t="s">
         <v>8</v>
       </c>
@@ -13347,7 +13506,7 @@
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7">
       <c r="A95" s="8" t="s">
         <v>9</v>
       </c>
@@ -13357,7 +13516,7 @@
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7">
       <c r="A96" s="8" t="s">
         <v>10</v>
       </c>
@@ -13367,7 +13526,7 @@
       <c r="E96" s="17"/>
       <c r="F96" s="17"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6">
       <c r="A97" s="8" t="s">
         <v>11</v>
       </c>
@@ -13377,7 +13536,7 @@
       <c r="E97" s="17"/>
       <c r="F97" s="17"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6">
       <c r="A98" s="8" t="s">
         <v>12</v>
       </c>
@@ -13387,7 +13546,7 @@
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6">
       <c r="A99" s="8" t="s">
         <v>13</v>
       </c>
@@ -13397,7 +13556,7 @@
       <c r="E99" s="17"/>
       <c r="F99" s="17"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6">
       <c r="A100" s="9" t="s">
         <v>14</v>
       </c>
@@ -13407,13 +13566,13 @@
       <c r="E100" s="17"/>
       <c r="F100" s="17"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6">
       <c r="B101" s="22"/>
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
       <c r="E101" s="22"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6">
       <c r="A102" s="11" t="s">
         <v>47</v>
       </c>
@@ -13422,7 +13581,7 @@
       <c r="D102" s="22"/>
       <c r="E102" s="22"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6">
       <c r="A103" s="11" t="s">
         <v>49</v>
       </c>
@@ -13432,7 +13591,7 @@
       <c r="E103" s="22"/>
       <c r="F103" s="22"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6">
       <c r="A105" s="23" t="s">
         <v>51</v>
       </c>
@@ -13452,7 +13611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6">
       <c r="A106" s="26" t="s">
         <v>52</v>
       </c>
@@ -13462,7 +13621,7 @@
       <c r="E106" s="28"/>
       <c r="F106" s="29"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6">
       <c r="A107" s="26" t="s">
         <v>53</v>
       </c>
@@ -13472,7 +13631,7 @@
       <c r="E107" s="30"/>
       <c r="F107" s="31"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6">
       <c r="A108" s="27" t="s">
         <v>54</v>
       </c>
@@ -13482,7 +13641,7 @@
       <c r="E108" s="32"/>
       <c r="F108" s="33"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6">
       <c r="A111" s="11" t="s">
         <v>60</v>
       </c>
@@ -13495,27 +13654,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.58203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="11" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="11" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11" style="11" customWidth="1"/>
     <col min="9" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -13527,7 +13686,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>15</v>
@@ -13540,7 +13699,7 @@
       <c r="G3" s="50"/>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -13555,7 +13714,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -13570,7 +13729,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -13585,7 +13744,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -13600,7 +13759,7 @@
       <c r="G7" s="30"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -13615,7 +13774,7 @@
       <c r="G8" s="30"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -13630,7 +13789,7 @@
       <c r="G9" s="30"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -13645,7 +13804,7 @@
       <c r="G10" s="30"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -13660,7 +13819,7 @@
       <c r="G11" s="30"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
@@ -13675,7 +13834,7 @@
       <c r="G12" s="30"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -13690,7 +13849,7 @@
       <c r="G13" s="30"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -13705,7 +13864,7 @@
       <c r="G14" s="30"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
@@ -13720,35 +13879,35 @@
       <c r="G15" s="32"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3">
       <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3">
       <c r="A19" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3">
       <c r="A20" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="19"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3">
       <c r="A21" s="13"/>
       <c r="B21" s="17"/>
     </row>
